--- a/Wyniki 3/Gotowe!/Wyniki.xlsx
+++ b/Wyniki 3/Gotowe!/Wyniki.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kacpe\OneDrive\Pulpit\Projekty\Praca magisterska\Wyniki 3\Gotowe!\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B768E7D-53A5-44AA-A0C6-0E6E31F02AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D112F1-E2AE-475E-A351-EC1F898B8FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S1 1 rekord" sheetId="1" r:id="rId1"/>
@@ -1848,9 +1848,6 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1859,9 +1856,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1876,6 +1870,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2163,633 +2163,633 @@
   <dimension ref="E4:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="21.42578125" customWidth="1"/>
-    <col min="6" max="6" width="29.5703125" customWidth="1"/>
-    <col min="7" max="12" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="21.453125" customWidth="1"/>
+    <col min="6" max="6" width="29.54296875" customWidth="1"/>
+    <col min="7" max="12" width="21.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="5:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E4" s="1" t="s">
+    <row r="4" spans="5:12" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="E4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="5:12" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="2" t="s">
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+    </row>
+    <row r="5" spans="5:12" ht="84" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E6" s="5">
+    <row r="6" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E6" s="10">
         <v>100</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E7" s="5"/>
-      <c r="F7" s="3" t="s">
+    <row r="7" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E7" s="10"/>
+      <c r="F7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E8" s="5"/>
-      <c r="F8" s="3" t="s">
+    <row r="8" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E8" s="10"/>
+      <c r="F8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="L8" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E9" s="5"/>
-      <c r="F9" s="3" t="s">
+    <row r="9" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E9" s="10"/>
+      <c r="F9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E10" s="5"/>
-      <c r="F10" s="3" t="s">
+    <row r="10" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E10" s="10"/>
+      <c r="F10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="4">
         <v>83990.67</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="4">
         <v>83921.600000000006</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="4">
         <v>83930.8</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="4">
         <v>83954</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="4">
         <v>83955</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="5">
         <v>83929.4</v>
       </c>
     </row>
-    <row r="11" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E11" s="5"/>
-      <c r="F11" s="3" t="s">
+    <row r="11" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E11" s="10"/>
+      <c r="F11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="4">
         <v>87.46</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="4">
         <v>87.39</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="4">
         <v>87.42</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="4">
         <v>87.38</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="4">
         <v>87.38</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="5">
         <v>87.41</v>
       </c>
     </row>
-    <row r="12" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E12" s="5"/>
-      <c r="F12" s="3" t="s">
+    <row r="12" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E12" s="10"/>
+      <c r="F12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="L12" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E13" s="5"/>
-      <c r="F13" s="3" t="s">
+    <row r="13" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E13" s="10"/>
+      <c r="F13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="J13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="L13" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E14" s="5">
+    <row r="14" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E14" s="10">
         <v>1000</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="J14" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="L14" s="9" t="s">
+      <c r="L14" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E15" s="5"/>
-      <c r="F15" s="3" t="s">
+    <row r="15" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E15" s="10"/>
+      <c r="F15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="J15" s="8" t="s">
+      <c r="J15" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="L15" s="9" t="s">
+      <c r="L15" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E16" s="5"/>
-      <c r="F16" s="3" t="s">
+    <row r="16" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E16" s="10"/>
+      <c r="F16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="I16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="J16" s="8" t="s">
+      <c r="J16" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="L16" s="9" t="s">
+      <c r="L16" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E17" s="5"/>
-      <c r="F17" s="3" t="s">
+    <row r="17" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E17" s="10"/>
+      <c r="F17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="J17" s="8" t="s">
+      <c r="J17" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="K17" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="L17" s="9" t="s">
+      <c r="L17" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E18" s="5"/>
-      <c r="F18" s="3" t="s">
+    <row r="18" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E18" s="10"/>
+      <c r="F18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="6">
         <v>839744.67</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="6">
         <v>839030.4</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="6">
         <v>839386.2</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="6">
         <v>839315.5</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="6">
         <v>864213.5</v>
       </c>
-      <c r="L18" s="9">
+      <c r="L18" s="7">
         <v>839198.6</v>
       </c>
     </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E19" s="5"/>
-      <c r="F19" s="3" t="s">
+    <row r="19" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E19" s="10"/>
+      <c r="F19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="6">
         <v>873.85</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="6">
         <v>873.29</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="6">
         <v>873.83</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J19" s="6">
         <v>873.73</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="6">
         <v>898.63</v>
       </c>
-      <c r="L19" s="9">
+      <c r="L19" s="7">
         <v>873.61</v>
       </c>
     </row>
-    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E20" s="5"/>
-      <c r="F20" s="3" t="s">
+    <row r="20" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E20" s="10"/>
+      <c r="F20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="I20" s="8" t="s">
+      <c r="I20" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="J20" s="8" t="s">
+      <c r="J20" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="K20" s="8" t="s">
+      <c r="K20" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="L20" s="9" t="s">
+      <c r="L20" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E21" s="5"/>
-      <c r="F21" s="3" t="s">
+    <row r="21" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E21" s="10"/>
+      <c r="F21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H21" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="I21" s="8" t="s">
+      <c r="I21" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="J21" s="8" t="s">
+      <c r="J21" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="K21" s="8" t="s">
+      <c r="K21" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="L21" s="9" t="s">
+      <c r="L21" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E22" s="5">
+    <row r="22" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E22" s="10">
         <v>4000</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="I22" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="J22" s="6" t="s">
+      <c r="J22" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="K22" s="6" t="s">
+      <c r="K22" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="L22" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E23" s="5"/>
-      <c r="F23" s="3" t="s">
+    <row r="23" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E23" s="10"/>
+      <c r="F23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="I23" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="J23" s="6" t="s">
+      <c r="J23" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="K23" s="6" t="s">
+      <c r="K23" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="L23" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E24" s="5"/>
-      <c r="F24" s="3" t="s">
+    <row r="24" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E24" s="10"/>
+      <c r="F24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H24" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="I24" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="J24" s="6" t="s">
+      <c r="J24" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="K24" s="6" t="s">
+      <c r="K24" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="L24" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E25" s="5"/>
-      <c r="F25" s="3" t="s">
+    <row r="25" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E25" s="10"/>
+      <c r="F25" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="H25" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="I25" s="6" t="s">
+      <c r="I25" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="J25" s="6" t="s">
+      <c r="J25" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="K25" s="6" t="s">
+      <c r="K25" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="L25" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E26" s="5"/>
-      <c r="F26" s="3" t="s">
+    <row r="26" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E26" s="10"/>
+      <c r="F26" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="4">
         <v>3350638.33</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="4">
         <v>2008500</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26" s="4">
         <v>2390222</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J26" s="4">
         <v>2430712</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K26" s="4">
         <v>2634959</v>
       </c>
-      <c r="L26" s="7">
+      <c r="L26" s="5">
         <v>2371057</v>
       </c>
     </row>
-    <row r="27" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E27" s="5"/>
-      <c r="F27" s="3" t="s">
+    <row r="27" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E27" s="10"/>
+      <c r="F27" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="4">
         <v>3487.92</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="4">
         <v>2090.67</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I27" s="4">
         <v>2488.25</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27" s="4">
         <v>2529.89</v>
       </c>
-      <c r="K27" s="6">
+      <c r="K27" s="4">
         <v>2742.64</v>
       </c>
-      <c r="L27" s="7">
+      <c r="L27" s="5">
         <v>2468.36</v>
       </c>
     </row>
-    <row r="28" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E28" s="5"/>
-      <c r="F28" s="3" t="s">
+    <row r="28" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E28" s="10"/>
+      <c r="F28" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="H28" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="I28" s="6" t="s">
+      <c r="I28" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="J28" s="6" t="s">
+      <c r="J28" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="K28" s="6" t="s">
+      <c r="K28" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="L28" s="7" t="s">
+      <c r="L28" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E29" s="5"/>
-      <c r="F29" s="3" t="s">
+    <row r="29" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E29" s="10"/>
+      <c r="F29" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="H29" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="I29" s="6" t="s">
+      <c r="I29" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="J29" s="6" t="s">
+      <c r="J29" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="K29" s="6" t="s">
+      <c r="K29" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="L29" s="7" t="s">
+      <c r="L29" s="5" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2812,630 +2812,630 @@
       <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="21.42578125" customWidth="1"/>
-    <col min="6" max="6" width="29.5703125" customWidth="1"/>
-    <col min="7" max="12" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="21.453125" customWidth="1"/>
+    <col min="6" max="6" width="29.54296875" customWidth="1"/>
+    <col min="7" max="12" width="21.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="5:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E4" s="1" t="s">
+    <row r="4" spans="5:12" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="E4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="5:12" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="2" t="s">
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+    </row>
+    <row r="5" spans="5:12" ht="84" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E6" s="5">
+    <row r="6" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E6" s="10">
         <v>100</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E7" s="5"/>
-      <c r="F7" s="3" t="s">
+    <row r="7" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E7" s="10"/>
+      <c r="F7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E8" s="5"/>
-      <c r="F8" s="3" t="s">
+    <row r="8" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E8" s="10"/>
+      <c r="F8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="L8" s="5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E9" s="5"/>
-      <c r="F9" s="3" t="s">
+    <row r="9" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E9" s="10"/>
+      <c r="F9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="5" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E10" s="5"/>
-      <c r="F10" s="3" t="s">
+    <row r="10" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E10" s="10"/>
+      <c r="F10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="4">
         <v>83972.5</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="4">
         <v>83743.600000000006</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="4">
         <v>83928.67</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="4">
         <v>83799.25</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="4">
         <v>83953.67</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="5">
         <v>83932</v>
       </c>
     </row>
-    <row r="11" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E11" s="5"/>
-      <c r="F11" s="3" t="s">
+    <row r="11" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E11" s="10"/>
+      <c r="F11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="4">
         <v>87.41</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="4">
         <v>87.21</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="4">
         <v>87.4</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="4">
         <v>87.24</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="4">
         <v>87.37</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="5">
         <v>87.37</v>
       </c>
     </row>
-    <row r="12" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E12" s="5"/>
-      <c r="F12" s="3" t="s">
+    <row r="12" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E12" s="10"/>
+      <c r="F12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="L12" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E13" s="5"/>
-      <c r="F13" s="3" t="s">
+    <row r="13" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E13" s="10"/>
+      <c r="F13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="J13" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="L13" s="5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E14" s="5">
+    <row r="14" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E14" s="10">
         <v>1000</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="J14" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="L14" s="9" t="s">
+      <c r="L14" s="7" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E15" s="5"/>
-      <c r="F15" s="3" t="s">
+    <row r="15" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E15" s="10"/>
+      <c r="F15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="J15" s="8" t="s">
+      <c r="J15" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="L15" s="9" t="s">
+      <c r="L15" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E16" s="5"/>
-      <c r="F16" s="3" t="s">
+    <row r="16" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E16" s="10"/>
+      <c r="F16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="I16" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="J16" s="8" t="s">
+      <c r="J16" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="L16" s="9" t="s">
+      <c r="L16" s="7" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E17" s="5"/>
-      <c r="F17" s="3" t="s">
+    <row r="17" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E17" s="10"/>
+      <c r="F17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="J17" s="8" t="s">
+      <c r="J17" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="K17" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="L17" s="9" t="s">
+      <c r="L17" s="7" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E18" s="5"/>
-      <c r="F18" s="3" t="s">
+    <row r="18" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E18" s="10"/>
+      <c r="F18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="6">
         <v>839472</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="6">
         <v>357634.4</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="6">
         <v>838995</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="6">
         <v>409197.8</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="6">
         <v>838852</v>
       </c>
-      <c r="L18" s="9">
+      <c r="L18" s="7">
         <v>839034.4</v>
       </c>
     </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E19" s="5"/>
-      <c r="F19" s="3" t="s">
+    <row r="19" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E19" s="10"/>
+      <c r="F19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="6">
         <v>873.91</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="6">
         <v>372.26</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="6">
         <v>873.16</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J19" s="6">
         <v>425.99</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="6">
         <v>873.77</v>
       </c>
-      <c r="L19" s="9">
+      <c r="L19" s="7">
         <v>873.27</v>
       </c>
     </row>
-    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E20" s="5"/>
-      <c r="F20" s="3" t="s">
+    <row r="20" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E20" s="10"/>
+      <c r="F20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="I20" s="8" t="s">
+      <c r="I20" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="J20" s="8" t="s">
+      <c r="J20" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="K20" s="8" t="s">
+      <c r="K20" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="L20" s="9" t="s">
+      <c r="L20" s="7" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E21" s="5"/>
-      <c r="F21" s="3" t="s">
+    <row r="21" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E21" s="10"/>
+      <c r="F21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H21" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="I21" s="8" t="s">
+      <c r="I21" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="J21" s="8" t="s">
+      <c r="J21" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="K21" s="8" t="s">
+      <c r="K21" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="L21" s="9" t="s">
+      <c r="L21" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="22" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E22" s="5">
+    <row r="22" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E22" s="10">
         <v>4000</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="I22" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="J22" s="6" t="s">
+      <c r="J22" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="K22" s="6" t="s">
+      <c r="K22" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="L22" s="5" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="23" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E23" s="5"/>
-      <c r="F23" s="3" t="s">
+    <row r="23" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E23" s="10"/>
+      <c r="F23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="I23" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="J23" s="6" t="s">
+      <c r="J23" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="K23" s="6" t="s">
+      <c r="K23" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="L23" s="5" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="24" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E24" s="5"/>
-      <c r="F24" s="3" t="s">
+    <row r="24" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E24" s="10"/>
+      <c r="F24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H24" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="I24" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="J24" s="6" t="s">
+      <c r="J24" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="K24" s="6" t="s">
+      <c r="K24" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="L24" s="5" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="25" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E25" s="5"/>
-      <c r="F25" s="3" t="s">
+    <row r="25" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E25" s="10"/>
+      <c r="F25" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="H25" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="I25" s="6" t="s">
+      <c r="I25" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="J25" s="6" t="s">
+      <c r="J25" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="K25" s="6" t="s">
+      <c r="K25" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="L25" s="5" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="26" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E26" s="5"/>
-      <c r="F26" s="3" t="s">
+    <row r="26" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E26" s="10"/>
+      <c r="F26" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="4">
         <v>1378872</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="4">
         <v>370004.2</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26" s="4">
         <v>1641208</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J26" s="4">
         <v>425443.3</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K26" s="4">
         <v>1042170.33</v>
       </c>
-      <c r="L26" s="7">
+      <c r="L26" s="5">
         <v>1639046</v>
       </c>
     </row>
-    <row r="27" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E27" s="5"/>
-      <c r="F27" s="3" t="s">
+    <row r="27" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E27" s="10"/>
+      <c r="F27" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="4">
         <v>1435.49</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="4">
         <v>385.10199999999998</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I27" s="4">
         <v>1708.26</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27" s="4">
         <v>442.91</v>
       </c>
-      <c r="K27" s="6">
+      <c r="K27" s="4">
         <v>1084.8399999999999</v>
       </c>
-      <c r="L27" s="7">
+      <c r="L27" s="5">
         <v>1706</v>
       </c>
     </row>
-    <row r="28" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E28" s="5"/>
-      <c r="F28" s="3" t="s">
+    <row r="28" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E28" s="10"/>
+      <c r="F28" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="H28" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="I28" s="6" t="s">
+      <c r="I28" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="J28" s="6" t="s">
+      <c r="J28" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="K28" s="6" t="s">
+      <c r="K28" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="L28" s="7" t="s">
+      <c r="L28" s="5" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="29" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E29" s="5"/>
-      <c r="F29" s="3" t="s">
+    <row r="29" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E29" s="10"/>
+      <c r="F29" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="H29" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="I29" s="6" t="s">
+      <c r="I29" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="J29" s="6" t="s">
+      <c r="J29" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="K29" s="6" t="s">
+      <c r="K29" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="L29" s="7" t="s">
+      <c r="L29" s="5" t="s">
         <v>204</v>
       </c>
     </row>
@@ -3458,630 +3458,630 @@
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="21.42578125" customWidth="1"/>
-    <col min="6" max="6" width="29.5703125" customWidth="1"/>
-    <col min="7" max="12" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="21.453125" customWidth="1"/>
+    <col min="6" max="6" width="29.54296875" customWidth="1"/>
+    <col min="7" max="12" width="21.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="5:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E4" s="1" t="s">
+    <row r="4" spans="5:12" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="E4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="5:12" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="2" t="s">
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+    </row>
+    <row r="5" spans="5:12" ht="84" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E6" s="5">
+    <row r="6" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E6" s="10">
         <v>100</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="5" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E7" s="5"/>
-      <c r="F7" s="3" t="s">
+    <row r="7" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E7" s="10"/>
+      <c r="F7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="5" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="8" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E8" s="5"/>
-      <c r="F8" s="3" t="s">
+    <row r="8" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E8" s="10"/>
+      <c r="F8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="L8" s="5" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="9" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E9" s="5"/>
-      <c r="F9" s="3" t="s">
+    <row r="9" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E9" s="10"/>
+      <c r="F9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="5" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="10" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E10" s="5"/>
-      <c r="F10" s="3" t="s">
+    <row r="10" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E10" s="10"/>
+      <c r="F10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="4">
         <v>83826</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="4">
         <v>78401.899999999994</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="4">
         <v>83888.6</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="4">
         <v>81803.5</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="4">
         <v>83759.33</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="5">
         <v>83915</v>
       </c>
     </row>
-    <row r="11" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E11" s="5"/>
-      <c r="F11" s="3" t="s">
+    <row r="11" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E11" s="10"/>
+      <c r="F11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="4">
         <v>87.29</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="4">
         <v>81.61</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="4">
         <v>87.33</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="4">
         <v>85.15</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="4">
         <v>87.25</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="5">
         <v>87.39</v>
       </c>
     </row>
-    <row r="12" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E12" s="5"/>
-      <c r="F12" s="3" t="s">
+    <row r="12" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E12" s="10"/>
+      <c r="F12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="L12" s="5" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="13" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E13" s="5"/>
-      <c r="F13" s="3" t="s">
+    <row r="13" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E13" s="10"/>
+      <c r="F13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="J13" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="L13" s="5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E14" s="5">
+    <row r="14" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E14" s="10">
         <v>1000</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="J14" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="L14" s="9" t="s">
+      <c r="L14" s="7" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="15" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E15" s="5"/>
-      <c r="F15" s="3" t="s">
+    <row r="15" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E15" s="10"/>
+      <c r="F15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="J15" s="8" t="s">
+      <c r="J15" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="L15" s="9" t="s">
+      <c r="L15" s="7" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="16" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E16" s="5"/>
-      <c r="F16" s="3" t="s">
+    <row r="16" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E16" s="10"/>
+      <c r="F16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="I16" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="J16" s="8" t="s">
+      <c r="J16" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="L16" s="9" t="s">
+      <c r="L16" s="7" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E17" s="5"/>
-      <c r="F17" s="3" t="s">
+    <row r="17" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E17" s="10"/>
+      <c r="F17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="J17" s="8" t="s">
+      <c r="J17" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="K17" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="L17" s="9" t="s">
+      <c r="L17" s="7" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E18" s="5"/>
-      <c r="F18" s="3" t="s">
+    <row r="18" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E18" s="10"/>
+      <c r="F18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="6">
         <v>314368</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="6">
         <v>86934.1</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="6">
         <v>697945.22</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="6">
         <v>92801</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="6">
         <v>280775</v>
       </c>
-      <c r="L18" s="9">
+      <c r="L18" s="7">
         <v>548493.6</v>
       </c>
     </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E19" s="5"/>
-      <c r="F19" s="3" t="s">
+    <row r="19" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E19" s="10"/>
+      <c r="F19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="6">
         <v>327.27999999999997</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="6">
         <v>90.5</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="6">
         <v>726.53</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J19" s="6">
         <v>96.61</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="6">
         <v>292.27</v>
       </c>
-      <c r="L19" s="9">
+      <c r="L19" s="7">
         <v>570.92999999999995</v>
       </c>
     </row>
-    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E20" s="5"/>
-      <c r="F20" s="3" t="s">
+    <row r="20" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E20" s="10"/>
+      <c r="F20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="I20" s="8" t="s">
+      <c r="I20" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="J20" s="8" t="s">
+      <c r="J20" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="K20" s="8" t="s">
+      <c r="K20" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="L20" s="9" t="s">
+      <c r="L20" s="7" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E21" s="5"/>
-      <c r="F21" s="3" t="s">
+    <row r="21" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E21" s="10"/>
+      <c r="F21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H21" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="I21" s="8" t="s">
+      <c r="I21" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="J21" s="8" t="s">
+      <c r="J21" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="K21" s="8" t="s">
+      <c r="K21" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="L21" s="9" t="s">
+      <c r="L21" s="7" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="22" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E22" s="5">
+    <row r="22" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E22" s="10">
         <v>4000</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="I22" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="J22" s="6" t="s">
+      <c r="J22" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="K22" s="6" t="s">
+      <c r="K22" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="L22" s="5" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="23" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E23" s="5"/>
-      <c r="F23" s="3" t="s">
+    <row r="23" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E23" s="10"/>
+      <c r="F23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="I23" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J23" s="4">
         <v>41120</v>
       </c>
-      <c r="K23" s="6" t="s">
+      <c r="K23" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="L23" s="5" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="24" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E24" s="5"/>
-      <c r="F24" s="3" t="s">
+    <row r="24" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E24" s="10"/>
+      <c r="F24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H24" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="I24" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="J24" s="6" t="s">
+      <c r="J24" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="K24" s="6" t="s">
+      <c r="K24" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="L24" s="5" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="25" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E25" s="5"/>
-      <c r="F25" s="3" t="s">
+    <row r="25" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E25" s="10"/>
+      <c r="F25" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="H25" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="I25" s="6" t="s">
+      <c r="I25" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="J25" s="6" t="s">
+      <c r="J25" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="K25" s="6" t="s">
+      <c r="K25" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="L25" s="5" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="26" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E26" s="5"/>
-      <c r="F26" s="3" t="s">
+    <row r="26" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E26" s="10"/>
+      <c r="F26" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="4">
         <v>350823</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="4">
         <v>89371</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26" s="4">
         <v>754229.2</v>
       </c>
-      <c r="J26" s="6" t="s">
+      <c r="J26" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K26" s="4">
         <v>284216.7</v>
       </c>
-      <c r="L26" s="7">
+      <c r="L26" s="5">
         <v>580370</v>
       </c>
     </row>
-    <row r="27" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E27" s="5"/>
-      <c r="F27" s="3" t="s">
+    <row r="27" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E27" s="10"/>
+      <c r="F27" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="4">
         <v>365.18</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="4">
         <v>93.02</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I27" s="4">
         <v>785.1</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27" s="4">
         <v>96.31</v>
       </c>
-      <c r="K27" s="6">
+      <c r="K27" s="4">
         <v>292.82</v>
       </c>
-      <c r="L27" s="7">
+      <c r="L27" s="5">
         <v>604.09</v>
       </c>
     </row>
-    <row r="28" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E28" s="5"/>
-      <c r="F28" s="3" t="s">
+    <row r="28" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E28" s="10"/>
+      <c r="F28" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="H28" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="I28" s="6" t="s">
+      <c r="I28" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="J28" s="6" t="s">
+      <c r="J28" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="K28" s="6" t="s">
+      <c r="K28" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="L28" s="7" t="s">
+      <c r="L28" s="5" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="29" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E29" s="5"/>
-      <c r="F29" s="3" t="s">
+    <row r="29" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E29" s="10"/>
+      <c r="F29" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="H29" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="I29" s="6" t="s">
+      <c r="I29" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="J29" s="6" t="s">
+      <c r="J29" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="K29" s="6" t="s">
+      <c r="K29" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="L29" s="7" t="s">
+      <c r="L29" s="5" t="s">
         <v>297</v>
       </c>
     </row>
@@ -4104,706 +4104,706 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="30.140625" customWidth="1"/>
-    <col min="7" max="13" width="26.42578125" customWidth="1"/>
+    <col min="6" max="6" width="30.1796875" customWidth="1"/>
+    <col min="7" max="13" width="26.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="5:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E4" s="1" t="s">
+    <row r="4" spans="5:13" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="E4" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="5:13" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="2" t="s">
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" spans="5:13" ht="77.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E6" s="5">
+    <row r="6" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E6" s="10">
         <v>100</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="M6" s="4" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="7" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E7" s="5"/>
-      <c r="F7" s="3" t="s">
+    <row r="7" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E7" s="10"/>
+      <c r="F7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="M7" s="4" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="8" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E8" s="5"/>
-      <c r="F8" s="3" t="s">
+    <row r="8" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E8" s="10"/>
+      <c r="F8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="L8" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="M8" s="6" t="s">
+      <c r="M8" s="4" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="9" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E9" s="5"/>
-      <c r="F9" s="3" t="s">
+    <row r="9" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E9" s="10"/>
+      <c r="F9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="L9" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="M9" s="6" t="s">
+      <c r="M9" s="4" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="10" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E10" s="5"/>
-      <c r="F10" s="3" t="s">
+    <row r="10" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E10" s="10"/>
+      <c r="F10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="4">
         <v>167714</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="4">
         <v>83919</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="4">
         <v>84063</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="4">
         <v>83880.67</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="4">
         <v>83891</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="4">
         <v>83893</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="4">
         <v>83902</v>
       </c>
     </row>
-    <row r="11" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E11" s="5"/>
-      <c r="F11" s="3" t="s">
+    <row r="11" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E11" s="10"/>
+      <c r="F11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="4">
         <v>174.61</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="4">
         <v>87.39</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="4">
         <v>87.29</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="4">
         <v>87.31</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="4">
         <v>87.33</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="4">
         <v>87.34</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="4">
         <v>87.36</v>
       </c>
     </row>
-    <row r="12" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E12" s="5"/>
-      <c r="F12" s="3" t="s">
+    <row r="12" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E12" s="10"/>
+      <c r="F12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="L12" s="6" t="s">
+      <c r="L12" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="M12" s="6" t="s">
+      <c r="M12" s="4" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="13" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E13" s="5"/>
-      <c r="F13" s="3" t="s">
+    <row r="13" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E13" s="10"/>
+      <c r="F13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="J13" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="L13" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="M13" s="6" t="s">
+      <c r="M13" s="4" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="14" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E14" s="5">
+    <row r="14" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E14" s="10">
         <v>1000</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="J14" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="L14" s="8" t="s">
+      <c r="L14" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="M14" s="8" t="s">
+      <c r="M14" s="6" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="15" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E15" s="5"/>
-      <c r="F15" s="3" t="s">
+    <row r="15" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E15" s="10"/>
+      <c r="F15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="J15" s="8" t="s">
+      <c r="J15" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="L15" s="8" t="s">
+      <c r="L15" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="M15" s="8" t="s">
+      <c r="M15" s="6" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="16" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E16" s="5"/>
-      <c r="F16" s="3" t="s">
+    <row r="16" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E16" s="10"/>
+      <c r="F16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="I16" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="J16" s="8" t="s">
+      <c r="J16" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="L16" s="8" t="s">
+      <c r="L16" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="M16" s="8" t="s">
+      <c r="M16" s="6" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="17" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E17" s="5"/>
-      <c r="F17" s="3" t="s">
+    <row r="17" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E17" s="10"/>
+      <c r="F17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="J17" s="8" t="s">
+      <c r="J17" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="K17" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="L17" s="8" t="s">
+      <c r="L17" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="M17" s="8" t="s">
+      <c r="M17" s="6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="18" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E18" s="5"/>
-      <c r="F18" s="3" t="s">
+    <row r="18" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E18" s="10"/>
+      <c r="F18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="6">
         <v>839125</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="6">
         <v>838605.6</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="6">
         <v>838984.7</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="6">
         <v>838797</v>
       </c>
-      <c r="L18" s="8">
+      <c r="L18" s="6">
         <v>838682</v>
       </c>
-      <c r="M18" s="8">
+      <c r="M18" s="6">
         <v>838856</v>
       </c>
     </row>
-    <row r="19" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E19" s="5"/>
-      <c r="F19" s="3" t="s">
+    <row r="19" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E19" s="10"/>
+      <c r="F19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="6">
         <v>1745.83</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="6">
         <v>873.37</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="6">
         <v>873.06</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J19" s="6">
         <v>873.14</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="6">
         <v>873.25</v>
       </c>
-      <c r="L19" s="8">
+      <c r="L19" s="6">
         <v>873.19</v>
       </c>
-      <c r="M19" s="8">
+      <c r="M19" s="6">
         <v>873.1</v>
       </c>
     </row>
-    <row r="20" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E20" s="5"/>
-      <c r="F20" s="3" t="s">
+    <row r="20" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E20" s="10"/>
+      <c r="F20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="I20" s="8" t="s">
+      <c r="I20" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="J20" s="8" t="s">
+      <c r="J20" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="K20" s="8" t="s">
+      <c r="K20" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="L20" s="8" t="s">
+      <c r="L20" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="M20" s="8" t="s">
+      <c r="M20" s="6" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="21" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E21" s="5"/>
-      <c r="F21" s="3" t="s">
+    <row r="21" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E21" s="10"/>
+      <c r="F21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H21" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="I21" s="8" t="s">
+      <c r="I21" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="J21" s="8" t="s">
+      <c r="J21" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="K21" s="8" t="s">
+      <c r="K21" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="L21" s="8" t="s">
+      <c r="L21" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="M21" s="8" t="s">
+      <c r="M21" s="6" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="22" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E22" s="5">
+    <row r="22" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E22" s="10">
         <v>4000</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="I22" s="10" t="s">
+      <c r="I22" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="J22" s="6" t="s">
+      <c r="J22" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="K22" s="6" t="s">
+      <c r="K22" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="L22" s="6" t="s">
+      <c r="L22" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="M22" s="6" t="s">
+      <c r="M22" s="4" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="23" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E23" s="5"/>
-      <c r="F23" s="3" t="s">
+    <row r="23" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E23" s="10"/>
+      <c r="F23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="I23" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="J23" s="6" t="s">
+      <c r="J23" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="K23" s="6" t="s">
+      <c r="K23" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="L23" s="6" t="s">
+      <c r="L23" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="M23" s="6" t="s">
+      <c r="M23" s="4" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="24" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E24" s="5"/>
-      <c r="F24" s="3" t="s">
+    <row r="24" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E24" s="10"/>
+      <c r="F24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H24" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="I24" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="J24" s="6" t="s">
+      <c r="J24" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="K24" s="6" t="s">
+      <c r="K24" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="L24" s="6" t="s">
+      <c r="L24" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="M24" s="6" t="s">
+      <c r="M24" s="4" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="25" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E25" s="5"/>
-      <c r="F25" s="3" t="s">
+    <row r="25" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E25" s="10"/>
+      <c r="F25" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="H25" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="I25" s="6" t="s">
+      <c r="I25" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="J25" s="6" t="s">
+      <c r="J25" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="K25" s="6" t="s">
+      <c r="K25" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="L25" s="6" t="s">
+      <c r="L25" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="M25" s="6" t="s">
+      <c r="M25" s="4" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="26" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E26" s="5"/>
-      <c r="F26" s="3" t="s">
+    <row r="26" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E26" s="10"/>
+      <c r="F26" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="4">
         <v>3067160</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="4">
         <v>2127163</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26" s="4">
         <v>1435061.67</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J26" s="4">
         <v>1551003</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K26" s="4">
         <v>1641889.4</v>
       </c>
-      <c r="L26" s="6">
+      <c r="L26" s="4">
         <v>1693267</v>
       </c>
-      <c r="M26" s="6">
+      <c r="M26" s="4">
         <v>1860542</v>
       </c>
     </row>
-    <row r="27" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E27" s="5"/>
-      <c r="F27" s="3" t="s">
+    <row r="27" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E27" s="10"/>
+      <c r="F27" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="4">
         <v>3191.72</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="4">
         <v>2214.0700000000002</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I27" s="4">
         <v>1493.66</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27" s="4">
         <v>1614.5</v>
       </c>
-      <c r="K27" s="6">
+      <c r="K27" s="4">
         <v>1708.95</v>
       </c>
-      <c r="L27" s="6">
+      <c r="L27" s="4">
         <v>1762.45</v>
       </c>
-      <c r="M27" s="6">
+      <c r="M27" s="4">
         <v>1936.596</v>
       </c>
     </row>
-    <row r="28" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E28" s="5"/>
-      <c r="F28" s="3" t="s">
+    <row r="28" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E28" s="10"/>
+      <c r="F28" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="H28" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="I28" s="6" t="s">
+      <c r="I28" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="J28" s="6" t="s">
+      <c r="J28" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="K28" s="6" t="s">
+      <c r="K28" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="L28" s="6" t="s">
+      <c r="L28" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="M28" s="6" t="s">
+      <c r="M28" s="4" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="29" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E29" s="5"/>
-      <c r="F29" s="3" t="s">
+    <row r="29" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E29" s="10"/>
+      <c r="F29" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="H29" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="I29" s="6" t="s">
+      <c r="I29" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="J29" s="6" t="s">
+      <c r="J29" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="K29" s="6" t="s">
+      <c r="K29" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="L29" s="6" t="s">
+      <c r="L29" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="M29" s="6" t="s">
+      <c r="M29" s="4" t="s">
         <v>410</v>
       </c>
     </row>
@@ -4826,706 +4826,706 @@
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="21.42578125" customWidth="1"/>
-    <col min="6" max="6" width="30.42578125" customWidth="1"/>
-    <col min="7" max="13" width="22.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21.453125" customWidth="1"/>
+    <col min="6" max="6" width="30.453125" customWidth="1"/>
+    <col min="7" max="13" width="22.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="5:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E4" s="1" t="s">
+    <row r="4" spans="5:13" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="E4" s="9" t="s">
         <v>411</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="5:13" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="2" t="s">
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" spans="5:13" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E6" s="5">
+    <row r="6" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E6" s="10">
         <v>100</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="M6" s="4" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="7" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E7" s="5"/>
-      <c r="F7" s="3" t="s">
+    <row r="7" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E7" s="10"/>
+      <c r="F7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="M7" s="4" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="8" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E8" s="5"/>
-      <c r="F8" s="3" t="s">
+    <row r="8" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E8" s="10"/>
+      <c r="F8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="L8" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="M8" s="6" t="s">
+      <c r="M8" s="4" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="9" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E9" s="5"/>
-      <c r="F9" s="3" t="s">
+    <row r="9" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E9" s="10"/>
+      <c r="F9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="L9" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="M9" s="6" t="s">
+      <c r="M9" s="4" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="10" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E10" s="5"/>
-      <c r="F10" s="3" t="s">
+    <row r="10" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E10" s="10"/>
+      <c r="F10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="4">
         <v>417568</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="4">
         <v>83788.800000000003</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="4">
         <v>83870.33</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="4">
         <v>83871.33</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="4">
         <v>83823.199999999997</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="4">
         <v>83820.2</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="4">
         <v>83979</v>
       </c>
     </row>
-    <row r="11" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E11" s="5"/>
-      <c r="F11" s="3" t="s">
+    <row r="11" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E11" s="10"/>
+      <c r="F11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="4">
         <v>434.80200000000002</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="4">
         <v>87.23</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="4">
         <v>87.29</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="4">
         <v>87.3</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="4">
         <v>87.28</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="4">
         <v>87.28</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="4">
         <v>87.43</v>
       </c>
     </row>
-    <row r="12" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E12" s="5"/>
-      <c r="F12" s="3" t="s">
+    <row r="12" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E12" s="10"/>
+      <c r="F12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="L12" s="6" t="s">
+      <c r="L12" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="M12" s="6" t="s">
+      <c r="M12" s="4" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="13" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E13" s="5"/>
-      <c r="F13" s="3" t="s">
+    <row r="13" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E13" s="10"/>
+      <c r="F13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="J13" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="L13" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="M13" s="6" t="s">
+      <c r="M13" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E14" s="5">
+    <row r="14" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E14" s="10">
         <v>1000</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="J14" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="L14" s="8" t="s">
+      <c r="L14" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="M14" s="8" t="s">
+      <c r="M14" s="6" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="15" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E15" s="5"/>
-      <c r="F15" s="3" t="s">
+    <row r="15" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E15" s="10"/>
+      <c r="F15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="J15" s="8" t="s">
+      <c r="J15" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="L15" s="8" t="s">
+      <c r="L15" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="M15" s="8" t="s">
+      <c r="M15" s="6" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="16" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E16" s="5"/>
-      <c r="F16" s="3" t="s">
+    <row r="16" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E16" s="10"/>
+      <c r="F16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="I16" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="J16" s="8" t="s">
+      <c r="J16" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="L16" s="8" t="s">
+      <c r="L16" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="M16" s="8" t="s">
+      <c r="M16" s="6" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="17" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E17" s="5"/>
-      <c r="F17" s="3" t="s">
+    <row r="17" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E17" s="10"/>
+      <c r="F17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="J17" s="8" t="s">
+      <c r="J17" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="K17" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="L17" s="8" t="s">
+      <c r="L17" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="M17" s="8" t="s">
+      <c r="M17" s="6" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="18" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E18" s="5"/>
-      <c r="F18" s="3" t="s">
+    <row r="18" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E18" s="10"/>
+      <c r="F18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="6">
         <v>3143988</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="6">
         <v>838899</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="6">
         <v>838710</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="6">
         <v>838964</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="6">
         <v>838277</v>
       </c>
-      <c r="L18" s="8">
+      <c r="L18" s="6">
         <v>838396</v>
       </c>
-      <c r="M18" s="8">
+      <c r="M18" s="6">
         <v>839285</v>
       </c>
     </row>
-    <row r="19" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E19" s="5"/>
-      <c r="F19" s="3" t="s">
+    <row r="19" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E19" s="10"/>
+      <c r="F19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="6">
         <v>3272.35</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="6">
         <v>873.21</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="6">
         <v>873.03</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J19" s="6">
         <v>873.44</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="6">
         <v>872.58</v>
       </c>
-      <c r="L19" s="8">
+      <c r="L19" s="6">
         <v>872.71</v>
       </c>
-      <c r="M19" s="8">
+      <c r="M19" s="6">
         <v>873.59</v>
       </c>
     </row>
-    <row r="20" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E20" s="5"/>
-      <c r="F20" s="3" t="s">
+    <row r="20" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E20" s="10"/>
+      <c r="F20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="I20" s="8" t="s">
+      <c r="I20" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="J20" s="8" t="s">
+      <c r="J20" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="K20" s="8" t="s">
+      <c r="K20" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="L20" s="8" t="s">
+      <c r="L20" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="M20" s="8" t="s">
+      <c r="M20" s="6" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="21" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E21" s="5"/>
-      <c r="F21" s="3" t="s">
+    <row r="21" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E21" s="10"/>
+      <c r="F21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H21" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="I21" s="8" t="s">
+      <c r="I21" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="J21" s="8" t="s">
+      <c r="J21" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="K21" s="8" t="s">
+      <c r="K21" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="L21" s="8" t="s">
+      <c r="L21" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="M21" s="8" t="s">
+      <c r="M21" s="6" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="22" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E22" s="5">
+    <row r="22" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E22" s="10">
         <v>4000</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="I22" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="J22" s="6" t="s">
+      <c r="J22" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="K22" s="6" t="s">
+      <c r="K22" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="L22" s="6" t="s">
+      <c r="L22" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="M22" s="6" t="s">
+      <c r="M22" s="4" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="23" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E23" s="5"/>
-      <c r="F23" s="3" t="s">
+    <row r="23" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E23" s="10"/>
+      <c r="F23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="I23" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="J23" s="6" t="s">
+      <c r="J23" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="K23" s="6" t="s">
+      <c r="K23" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="L23" s="6" t="s">
+      <c r="L23" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="M23" s="6" t="s">
+      <c r="M23" s="4" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="24" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E24" s="5"/>
-      <c r="F24" s="3" t="s">
+    <row r="24" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E24" s="10"/>
+      <c r="F24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H24" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="I24" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="J24" s="6" t="s">
+      <c r="J24" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="K24" s="6" t="s">
+      <c r="K24" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="L24" s="6" t="s">
+      <c r="L24" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="M24" s="6" t="s">
+      <c r="M24" s="4" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="25" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E25" s="5"/>
-      <c r="F25" s="3" t="s">
+    <row r="25" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E25" s="10"/>
+      <c r="F25" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="H25" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="I25" s="6" t="s">
+      <c r="I25" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="J25" s="6" t="s">
+      <c r="J25" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="K25" s="6" t="s">
+      <c r="K25" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="L25" s="6" t="s">
+      <c r="L25" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="M25" s="6" t="s">
+      <c r="M25" s="4" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="26" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E26" s="5"/>
-      <c r="F26" s="3" t="s">
+    <row r="26" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E26" s="10"/>
+      <c r="F26" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="4">
         <v>3219096</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="4">
         <v>1518941</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26" s="4">
         <v>1286759</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J26" s="4">
         <v>1493285.33</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K26" s="4">
         <v>1101629</v>
       </c>
-      <c r="L26" s="6">
+      <c r="L26" s="4">
         <v>1170975</v>
       </c>
-      <c r="M26" s="6">
+      <c r="M26" s="4">
         <v>1550665</v>
       </c>
     </row>
-    <row r="27" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E27" s="5"/>
-      <c r="F27" s="3" t="s">
+    <row r="27" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E27" s="10"/>
+      <c r="F27" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="4">
         <v>3350.83</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="4">
         <v>1581.02</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I27" s="4">
         <v>1339.19</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27" s="4">
         <v>1554.51</v>
       </c>
-      <c r="K27" s="6">
+      <c r="K27" s="4">
         <v>1146.7280000000001</v>
       </c>
-      <c r="L27" s="6">
+      <c r="L27" s="4">
         <v>1218.95</v>
       </c>
-      <c r="M27" s="6">
+      <c r="M27" s="4">
         <v>1614.05</v>
       </c>
     </row>
-    <row r="28" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E28" s="5"/>
-      <c r="F28" s="3" t="s">
+    <row r="28" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E28" s="10"/>
+      <c r="F28" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="H28" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="I28" s="6" t="s">
+      <c r="I28" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="J28" s="6" t="s">
+      <c r="J28" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="K28" s="6" t="s">
+      <c r="K28" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="L28" s="6" t="s">
+      <c r="L28" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="M28" s="6" t="s">
+      <c r="M28" s="4" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="29" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E29" s="5"/>
-      <c r="F29" s="3" t="s">
+    <row r="29" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E29" s="10"/>
+      <c r="F29" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="H29" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="I29" s="6" t="s">
+      <c r="I29" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="J29" s="6" t="s">
+      <c r="J29" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="K29" s="6" t="s">
+      <c r="K29" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="L29" s="6" t="s">
+      <c r="L29" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="M29" s="6" t="s">
+      <c r="M29" s="4" t="s">
         <v>510</v>
       </c>
     </row>
@@ -5544,482 +5544,482 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEA4A1E2-875B-4DA4-AFD6-20C97425A702}">
   <dimension ref="E4:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="22.85546875" customWidth="1"/>
-    <col min="6" max="6" width="32.28515625" customWidth="1"/>
-    <col min="7" max="10" width="31.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22.81640625" customWidth="1"/>
+    <col min="6" max="6" width="32.26953125" customWidth="1"/>
+    <col min="7" max="10" width="31.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="5:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E4" s="1" t="s">
+    <row r="4" spans="5:10" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="E4" s="9" t="s">
         <v>511</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="5:10" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="2" t="s">
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="5:10" ht="84" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E6" s="5">
+    <row r="6" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E6" s="10">
         <v>100</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="4" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="7" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E7" s="5"/>
-      <c r="F7" s="3" t="s">
+    <row r="7" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E7" s="10"/>
+      <c r="F7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="4" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="8" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E8" s="5"/>
-      <c r="F8" s="3" t="s">
+    <row r="8" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E8" s="10"/>
+      <c r="F8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="4" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="9" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E9" s="5"/>
-      <c r="F9" s="3" t="s">
+    <row r="9" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E9" s="10"/>
+      <c r="F9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="4" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="10" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E10" s="5"/>
-      <c r="F10" s="3" t="s">
+    <row r="10" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E10" s="10"/>
+      <c r="F10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="4">
         <v>666660.80000000005</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="4">
         <v>83853.399999999994</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="4">
         <v>83792.67</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="4">
         <v>83810.5</v>
       </c>
     </row>
-    <row r="11" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E11" s="5"/>
-      <c r="F11" s="3" t="s">
+    <row r="11" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E11" s="10"/>
+      <c r="F11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="4">
         <v>694.09</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="4">
         <v>87.28</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="4">
         <v>87.23</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="4">
         <v>87.25</v>
       </c>
     </row>
-    <row r="12" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E12" s="5"/>
-      <c r="F12" s="3" t="s">
+    <row r="12" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E12" s="10"/>
+      <c r="F12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="4" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="13" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E13" s="5"/>
-      <c r="F13" s="3" t="s">
+    <row r="13" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E13" s="10"/>
+      <c r="F13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="J13" s="4" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="14" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E14" s="5">
+    <row r="14" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E14" s="10">
         <v>1000</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="6" t="s">
         <v>534</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="J14" s="6" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="15" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E15" s="5"/>
-      <c r="F15" s="3" t="s">
+    <row r="15" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E15" s="10"/>
+      <c r="F15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="J15" s="8" t="s">
+      <c r="J15" s="6" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="16" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E16" s="5"/>
-      <c r="F16" s="3" t="s">
+    <row r="16" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E16" s="10"/>
+      <c r="F16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="6" t="s">
         <v>540</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="I16" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="J16" s="8" t="s">
+      <c r="J16" s="6" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="17" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E17" s="5"/>
-      <c r="F17" s="3" t="s">
+    <row r="17" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E17" s="10"/>
+      <c r="F17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="J17" s="8" t="s">
+      <c r="J17" s="6" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="18" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E18" s="5"/>
-      <c r="F18" s="3" t="s">
+    <row r="18" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E18" s="10"/>
+      <c r="F18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="6">
         <v>3281848</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="6">
         <v>838620</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="6">
         <v>831089</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="6">
         <v>837182</v>
       </c>
     </row>
-    <row r="19" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E19" s="5"/>
-      <c r="F19" s="3" t="s">
+    <row r="19" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E19" s="10"/>
+      <c r="F19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="6">
         <v>3416.4</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="6">
         <v>873.08</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="6">
         <v>865.1</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J19" s="6">
         <v>874.68</v>
       </c>
     </row>
-    <row r="20" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E20" s="5"/>
-      <c r="F20" s="3" t="s">
+    <row r="20" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E20" s="10"/>
+      <c r="F20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="I20" s="8" t="s">
+      <c r="I20" s="6" t="s">
         <v>505</v>
       </c>
-      <c r="J20" s="8" t="s">
+      <c r="J20" s="6" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="21" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E21" s="5"/>
-      <c r="F21" s="3" t="s">
+    <row r="21" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E21" s="10"/>
+      <c r="F21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H21" s="6" t="s">
         <v>550</v>
       </c>
-      <c r="I21" s="8" t="s">
+      <c r="I21" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="J21" s="8" t="s">
+      <c r="J21" s="6" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="22" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E22" s="5">
+    <row r="22" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E22" s="10">
         <v>4000</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="4" t="s">
         <v>553</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="I22" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="J22" s="6" t="s">
+      <c r="J22" s="4" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="23" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E23" s="5"/>
-      <c r="F23" s="3" t="s">
+    <row r="23" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E23" s="10"/>
+      <c r="F23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="I23" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="J23" s="6" t="s">
+      <c r="J23" s="4" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="24" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E24" s="5"/>
-      <c r="F24" s="3" t="s">
+    <row r="24" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E24" s="10"/>
+      <c r="F24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H24" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="I24" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="J24" s="6" t="s">
+      <c r="J24" s="4" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="25" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E25" s="5"/>
-      <c r="F25" s="3" t="s">
+    <row r="25" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E25" s="10"/>
+      <c r="F25" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="4" t="s">
         <v>564</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="H25" s="4" t="s">
         <v>565</v>
       </c>
-      <c r="I25" s="6" t="s">
+      <c r="I25" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="J25" s="6" t="s">
+      <c r="J25" s="4" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="26" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E26" s="5"/>
-      <c r="F26" s="3" t="s">
+    <row r="26" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E26" s="10"/>
+      <c r="F26" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="4">
         <v>3331397</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="4">
         <v>1319012</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26" s="4">
         <v>911775</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J26" s="4">
         <v>1046129.33</v>
       </c>
     </row>
-    <row r="27" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E27" s="5"/>
-      <c r="F27" s="3" t="s">
+    <row r="27" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E27" s="10"/>
+      <c r="F27" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="4">
         <v>3467.64</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="4">
         <v>1372.8</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I27" s="4">
         <v>949.18</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27" s="4">
         <v>1088.75</v>
       </c>
     </row>
-    <row r="28" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E28" s="5"/>
-      <c r="F28" s="3" t="s">
+    <row r="28" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E28" s="10"/>
+      <c r="F28" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="4" t="s">
         <v>568</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="H28" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="I28" s="6" t="s">
+      <c r="I28" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="J28" s="6" t="s">
+      <c r="J28" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E29" s="5"/>
-      <c r="F29" s="3" t="s">
+    <row r="29" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E29" s="10"/>
+      <c r="F29" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="H29" s="4" t="s">
         <v>569</v>
       </c>
-      <c r="I29" s="6" t="s">
+      <c r="I29" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="J29" s="6" t="s">
+      <c r="J29" s="4" t="s">
         <v>570</v>
       </c>
     </row>

--- a/Wyniki 3/Gotowe!/Wyniki.xlsx
+++ b/Wyniki 3/Gotowe!/Wyniki.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kacpe\OneDrive\Pulpit\Projekty\Praca magisterska\Wyniki 3\Gotowe!\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D112F1-E2AE-475E-A351-EC1F898B8FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0239B95-3544-48DE-B89B-3D29A9EDA83C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25710" yWindow="-2340" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S1 1 rekord" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,28 @@
     <sheet name="S3" sheetId="5" r:id="rId5"/>
     <sheet name="S4" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="738">
   <si>
     <t>S1 - pobieranie 1 rekordu</t>
   </si>
@@ -1743,6 +1754,507 @@
   </si>
   <si>
     <t>840MB</t>
+  </si>
+  <si>
+    <t>359,06ms</t>
+  </si>
+  <si>
+    <t>682,34ms</t>
+  </si>
+  <si>
+    <t>433,63ms</t>
+  </si>
+  <si>
+    <t>440,97ms</t>
+  </si>
+  <si>
+    <t>889MB</t>
+  </si>
+  <si>
+    <t>332,9ms</t>
+  </si>
+  <si>
+    <t>626,95ms</t>
+  </si>
+  <si>
+    <t>402,67ms</t>
+  </si>
+  <si>
+    <t>409,22ms</t>
+  </si>
+  <si>
+    <t>745MB</t>
+  </si>
+  <si>
+    <t>614MB</t>
+  </si>
+  <si>
+    <t>6,29ms</t>
+  </si>
+  <si>
+    <t>11,59ms</t>
+  </si>
+  <si>
+    <t>16,58ms</t>
+  </si>
+  <si>
+    <t>187,94ms</t>
+  </si>
+  <si>
+    <t>828MB</t>
+  </si>
+  <si>
+    <t>328,1ms</t>
+  </si>
+  <si>
+    <t>964,56ms</t>
+  </si>
+  <si>
+    <t>451,21ms</t>
+  </si>
+  <si>
+    <t>484,59ms</t>
+  </si>
+  <si>
+    <t>892MB</t>
+  </si>
+  <si>
+    <t>240,52ms</t>
+  </si>
+  <si>
+    <t>637,83ms</t>
+  </si>
+  <si>
+    <t>315,66ms</t>
+  </si>
+  <si>
+    <t>328,83ms</t>
+  </si>
+  <si>
+    <t>785,8MB</t>
+  </si>
+  <si>
+    <t>645MB</t>
+  </si>
+  <si>
+    <t>585,92ms</t>
+  </si>
+  <si>
+    <t>1030ms</t>
+  </si>
+  <si>
+    <t>692,96ms</t>
+  </si>
+  <si>
+    <t>699,46ms</t>
+  </si>
+  <si>
+    <t>491,06ms</t>
+  </si>
+  <si>
+    <t>783,98ms</t>
+  </si>
+  <si>
+    <t>584,01ms</t>
+  </si>
+  <si>
+    <t>591,44ms</t>
+  </si>
+  <si>
+    <t>798MB</t>
+  </si>
+  <si>
+    <t>632MB</t>
+  </si>
+  <si>
+    <t>91,29ms</t>
+  </si>
+  <si>
+    <t>280,68ms</t>
+  </si>
+  <si>
+    <t>136,77ms</t>
+  </si>
+  <si>
+    <t>146,98ms</t>
+  </si>
+  <si>
+    <t>878MB</t>
+  </si>
+  <si>
+    <t>443,44ms</t>
+  </si>
+  <si>
+    <t>778,11ms</t>
+  </si>
+  <si>
+    <t>547,46ms</t>
+  </si>
+  <si>
+    <t>559,35ms</t>
+  </si>
+  <si>
+    <t>1,9GB</t>
+  </si>
+  <si>
+    <t>266,11ms</t>
+  </si>
+  <si>
+    <t>769,48ms</t>
+  </si>
+  <si>
+    <t>343,67ms</t>
+  </si>
+  <si>
+    <t>359ms</t>
+  </si>
+  <si>
+    <t>935MB</t>
+  </si>
+  <si>
+    <t>739MB</t>
+  </si>
+  <si>
+    <t>148,33ms</t>
+  </si>
+  <si>
+    <t>145,1ms</t>
+  </si>
+  <si>
+    <t>147,77ms</t>
+  </si>
+  <si>
+    <t>4,73ms</t>
+  </si>
+  <si>
+    <t>5ms</t>
+  </si>
+  <si>
+    <t>5,44ms</t>
+  </si>
+  <si>
+    <t>5,74ms</t>
+  </si>
+  <si>
+    <t>4,65ms</t>
+  </si>
+  <si>
+    <t>212MB</t>
+  </si>
+  <si>
+    <t>100MB</t>
+  </si>
+  <si>
+    <t>101MB</t>
+  </si>
+  <si>
+    <t>138MB</t>
+  </si>
+  <si>
+    <t>2,73ms</t>
+  </si>
+  <si>
+    <t>1,43ms</t>
+  </si>
+  <si>
+    <t>150,49ms</t>
+  </si>
+  <si>
+    <t>147,41ms</t>
+  </si>
+  <si>
+    <t>152,17ms</t>
+  </si>
+  <si>
+    <t>2,1ms</t>
+  </si>
+  <si>
+    <t>5,29ms</t>
+  </si>
+  <si>
+    <t>4,78ms</t>
+  </si>
+  <si>
+    <t>2,54ms</t>
+  </si>
+  <si>
+    <t>686MB</t>
+  </si>
+  <si>
+    <t>695MB</t>
+  </si>
+  <si>
+    <t>2302ms</t>
+  </si>
+  <si>
+    <t>2980ms</t>
+  </si>
+  <si>
+    <t>2710ms</t>
+  </si>
+  <si>
+    <t>2662,5ms</t>
+  </si>
+  <si>
+    <t>2374ms</t>
+  </si>
+  <si>
+    <t>1612,5ms</t>
+  </si>
+  <si>
+    <t>2672ms</t>
+  </si>
+  <si>
+    <t>2382ms</t>
+  </si>
+  <si>
+    <t>1622,5ms</t>
+  </si>
+  <si>
+    <t>2,6GB</t>
+  </si>
+  <si>
+    <t>902MB</t>
+  </si>
+  <si>
+    <t>832,43ms</t>
+  </si>
+  <si>
+    <t>1150ms</t>
+  </si>
+  <si>
+    <t>977,09ms</t>
+  </si>
+  <si>
+    <t>983,31ms</t>
+  </si>
+  <si>
+    <t>696,2ms</t>
+  </si>
+  <si>
+    <t>955,8ms</t>
+  </si>
+  <si>
+    <t>821,75ms</t>
+  </si>
+  <si>
+    <t>833,86ms</t>
+  </si>
+  <si>
+    <t>812MB</t>
+  </si>
+  <si>
+    <t>321,26ms</t>
+  </si>
+  <si>
+    <t>545,46ms</t>
+  </si>
+  <si>
+    <t>392,36ms</t>
+  </si>
+  <si>
+    <t>399,16ms</t>
+  </si>
+  <si>
+    <t>912,65ms</t>
+  </si>
+  <si>
+    <t>1490ms</t>
+  </si>
+  <si>
+    <t>1080ms</t>
+  </si>
+  <si>
+    <t>1096ms</t>
+  </si>
+  <si>
+    <t>2,2GB</t>
+  </si>
+  <si>
+    <t>723,66ms</t>
+  </si>
+  <si>
+    <t>874,75ms</t>
+  </si>
+  <si>
+    <t>890,38ms</t>
+  </si>
+  <si>
+    <t>783MB</t>
+  </si>
+  <si>
+    <t>3480ms</t>
+  </si>
+  <si>
+    <t>4112ms</t>
+  </si>
+  <si>
+    <t>277MB</t>
+  </si>
+  <si>
+    <t>420,43ms</t>
+  </si>
+  <si>
+    <t>5210ms</t>
+  </si>
+  <si>
+    <t>680,04ms</t>
+  </si>
+  <si>
+    <t>500,1ms</t>
+  </si>
+  <si>
+    <t>506,88ms</t>
+  </si>
+  <si>
+    <t>2,9GB</t>
+  </si>
+  <si>
+    <t>127MB</t>
+  </si>
+  <si>
+    <t>1860ms</t>
+  </si>
+  <si>
+    <t>2610ms</t>
+  </si>
+  <si>
+    <t>2172ms</t>
+  </si>
+  <si>
+    <t>2186ms</t>
+  </si>
+  <si>
+    <t>273MB</t>
+  </si>
+  <si>
+    <t>257,47ms</t>
+  </si>
+  <si>
+    <t>609,32ms</t>
+  </si>
+  <si>
+    <t>312,14ms</t>
+  </si>
+  <si>
+    <t>391,79ms</t>
+  </si>
+  <si>
+    <t>254,1ms</t>
+  </si>
+  <si>
+    <t>555,9ms</t>
+  </si>
+  <si>
+    <t>301,53ms</t>
+  </si>
+  <si>
+    <t>310,14ms</t>
+  </si>
+  <si>
+    <t>260MB</t>
+  </si>
+  <si>
+    <t>7,87ms</t>
+  </si>
+  <si>
+    <t>222,29ms</t>
+  </si>
+  <si>
+    <t>15,83ms</t>
+  </si>
+  <si>
+    <t>25,75ms</t>
+  </si>
+  <si>
+    <t>167MB</t>
+  </si>
+  <si>
+    <t>3,2ms</t>
+  </si>
+  <si>
+    <t>258,55ms</t>
+  </si>
+  <si>
+    <t>6,34ms</t>
+  </si>
+  <si>
+    <t>9,33ms</t>
+  </si>
+  <si>
+    <t>961MB</t>
+  </si>
+  <si>
+    <t>176,04ms</t>
+  </si>
+  <si>
+    <t>3,47ms</t>
+  </si>
+  <si>
+    <t>500MB</t>
+  </si>
+  <si>
+    <t>465MB</t>
+  </si>
+  <si>
+    <t>391,78ms</t>
+  </si>
+  <si>
+    <t>3,3GB</t>
+  </si>
+  <si>
+    <t>2480ms</t>
+  </si>
+  <si>
+    <t>468MB</t>
+  </si>
+  <si>
+    <t>125,25ms</t>
+  </si>
+  <si>
+    <t>172,02ms</t>
+  </si>
+  <si>
+    <t>189,29ms</t>
+  </si>
+  <si>
+    <t>1412,86ms</t>
+  </si>
+  <si>
+    <t>1665,71ms</t>
+  </si>
+  <si>
+    <t>1692,86ms</t>
+  </si>
+  <si>
+    <t>3554ms</t>
+  </si>
+  <si>
+    <t>5610ms</t>
+  </si>
+  <si>
+    <t>4186ms</t>
+  </si>
+  <si>
+    <t>4254ms</t>
+  </si>
+  <si>
+    <t>234MB</t>
+  </si>
+  <si>
+    <t>19250ms</t>
+  </si>
+  <si>
+    <t>26130ms</t>
+  </si>
+  <si>
+    <t>22008ms</t>
+  </si>
+  <si>
+    <t>22148ms</t>
+  </si>
+  <si>
+    <t>53MB</t>
   </si>
 </sst>
 </file>
@@ -1806,7 +2318,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1829,24 +2341,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1868,9 +2369,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2160,32 +2658,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E4:L29"/>
+  <dimension ref="E4:L37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="21.453125" customWidth="1"/>
-    <col min="6" max="6" width="29.54296875" customWidth="1"/>
-    <col min="7" max="12" width="21.81640625" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="29.5703125" customWidth="1"/>
+    <col min="7" max="12" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="5:12" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="E4" s="9" t="s">
+    <row r="4" spans="5:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-    </row>
-    <row r="5" spans="5:12" ht="84" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5" spans="5:12" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E5" s="1" t="s">
         <v>1</v>
       </c>
@@ -2211,8 +2709,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E6" s="10">
+    <row r="6" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E6" s="9">
         <v>100</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -2237,8 +2735,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E7" s="10"/>
+    <row r="7" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E7" s="9"/>
       <c r="F7" s="2" t="s">
         <v>16</v>
       </c>
@@ -2261,8 +2759,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E8" s="10"/>
+    <row r="8" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E8" s="9"/>
       <c r="F8" s="2" t="s">
         <v>23</v>
       </c>
@@ -2285,8 +2783,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E9" s="10"/>
+    <row r="9" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E9" s="9"/>
       <c r="F9" s="2" t="s">
         <v>30</v>
       </c>
@@ -2309,8 +2807,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E10" s="10"/>
+    <row r="10" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E10" s="9"/>
       <c r="F10" s="2" t="s">
         <v>37</v>
       </c>
@@ -2333,8 +2831,8 @@
         <v>83929.4</v>
       </c>
     </row>
-    <row r="11" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E11" s="10"/>
+    <row r="11" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E11" s="9"/>
       <c r="F11" s="2" t="s">
         <v>38</v>
       </c>
@@ -2357,8 +2855,8 @@
         <v>87.41</v>
       </c>
     </row>
-    <row r="12" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E12" s="10"/>
+    <row r="12" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E12" s="9"/>
       <c r="F12" s="2" t="s">
         <v>39</v>
       </c>
@@ -2381,8 +2879,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E13" s="10"/>
+    <row r="13" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E13" s="9"/>
       <c r="F13" s="2" t="s">
         <v>44</v>
       </c>
@@ -2405,8 +2903,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E14" s="10">
+    <row r="14" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E14" s="9">
         <v>1000</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -2431,8 +2929,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E15" s="10"/>
+    <row r="15" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E15" s="9"/>
       <c r="F15" s="2" t="s">
         <v>16</v>
       </c>
@@ -2455,8 +2953,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E16" s="10"/>
+    <row r="16" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E16" s="9"/>
       <c r="F16" s="2" t="s">
         <v>23</v>
       </c>
@@ -2479,8 +2977,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E17" s="10"/>
+    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E17" s="9"/>
       <c r="F17" s="2" t="s">
         <v>30</v>
       </c>
@@ -2503,8 +3001,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E18" s="10"/>
+    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E18" s="9"/>
       <c r="F18" s="2" t="s">
         <v>37</v>
       </c>
@@ -2527,8 +3025,8 @@
         <v>839198.6</v>
       </c>
     </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E19" s="10"/>
+    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E19" s="9"/>
       <c r="F19" s="2" t="s">
         <v>38</v>
       </c>
@@ -2551,8 +3049,8 @@
         <v>873.61</v>
       </c>
     </row>
-    <row r="20" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E20" s="10"/>
+    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E20" s="9"/>
       <c r="F20" s="2" t="s">
         <v>39</v>
       </c>
@@ -2575,8 +3073,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E21" s="10"/>
+    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E21" s="9"/>
       <c r="F21" s="2" t="s">
         <v>44</v>
       </c>
@@ -2599,206 +3097,337 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E22" s="10">
-        <v>4000</v>
+    <row r="22" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E22" s="9">
+        <v>2000</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>77</v>
-      </c>
+      <c r="G22" s="4"/>
       <c r="H22" s="4" t="s">
-        <v>78</v>
+        <v>709</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E23" s="10"/>
+        <v>637</v>
+      </c>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="5"/>
+    </row>
+    <row r="23" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E23" s="9"/>
       <c r="F23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="4" t="s">
-        <v>83</v>
-      </c>
+      <c r="G23" s="4"/>
       <c r="H23" s="4" t="s">
-        <v>84</v>
+        <v>710</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E24" s="10"/>
+        <v>714</v>
+      </c>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="5"/>
+    </row>
+    <row r="24" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E24" s="9"/>
       <c r="F24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="G24" s="4"/>
       <c r="H24" s="4" t="s">
-        <v>90</v>
+        <v>711</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E25" s="10"/>
+        <v>64</v>
+      </c>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="5"/>
+    </row>
+    <row r="25" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E25" s="9"/>
       <c r="F25" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>95</v>
-      </c>
+      <c r="G25" s="4"/>
       <c r="H25" s="4" t="s">
-        <v>96</v>
+        <v>712</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="L25" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E26" s="10"/>
+        <v>715</v>
+      </c>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="5"/>
+    </row>
+    <row r="26" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E26" s="9"/>
       <c r="F26" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G26" s="4">
-        <v>3350638.33</v>
-      </c>
+      <c r="G26" s="4"/>
       <c r="H26" s="4">
-        <v>2008500</v>
+        <v>1675111</v>
       </c>
       <c r="I26" s="4">
-        <v>2390222</v>
-      </c>
-      <c r="J26" s="4">
-        <v>2430712</v>
-      </c>
-      <c r="K26" s="4">
-        <v>2634959</v>
-      </c>
-      <c r="L26" s="5">
-        <v>2371057</v>
-      </c>
-    </row>
-    <row r="27" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E27" s="10"/>
+        <v>1678060</v>
+      </c>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="5"/>
+    </row>
+    <row r="27" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E27" s="9"/>
       <c r="F27" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G27" s="4">
-        <v>3487.92</v>
-      </c>
+      <c r="G27" s="4"/>
       <c r="H27" s="4">
-        <v>2090.67</v>
+        <v>1743.54</v>
       </c>
       <c r="I27" s="4">
-        <v>2488.25</v>
-      </c>
-      <c r="J27" s="4">
-        <v>2529.89</v>
-      </c>
-      <c r="K27" s="4">
-        <v>2742.64</v>
-      </c>
-      <c r="L27" s="5">
-        <v>2468.36</v>
-      </c>
-    </row>
-    <row r="28" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E28" s="10"/>
+        <v>1746.54</v>
+      </c>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="5"/>
+    </row>
+    <row r="28" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E28" s="9"/>
       <c r="F28" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G28" s="4" t="s">
-        <v>101</v>
-      </c>
+      <c r="G28" s="4"/>
       <c r="H28" s="4" t="s">
-        <v>102</v>
+        <v>404</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="L28" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="29" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E29" s="10"/>
+        <v>716</v>
+      </c>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="5"/>
+    </row>
+    <row r="29" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E29" s="9"/>
       <c r="F29" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G29" s="4"/>
+      <c r="H29" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="5"/>
+    </row>
+    <row r="30" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E30" s="9">
+        <v>4000</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E31" s="9"/>
+      <c r="F31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E32" s="9"/>
+      <c r="F32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E33" s="9"/>
+      <c r="F33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E34" s="9"/>
+      <c r="F34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G34" s="6">
+        <v>3350638.33</v>
+      </c>
+      <c r="H34" s="6">
+        <v>2008500</v>
+      </c>
+      <c r="I34" s="6">
+        <v>2390222</v>
+      </c>
+      <c r="J34" s="6">
+        <v>2430712</v>
+      </c>
+      <c r="K34" s="6">
+        <v>2634959</v>
+      </c>
+      <c r="L34" s="7">
+        <v>2371057</v>
+      </c>
+    </row>
+    <row r="35" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E35" s="9"/>
+      <c r="F35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35" s="6">
+        <v>3487.92</v>
+      </c>
+      <c r="H35" s="6">
+        <v>2090.67</v>
+      </c>
+      <c r="I35" s="6">
+        <v>2488.25</v>
+      </c>
+      <c r="J35" s="6">
+        <v>2529.89</v>
+      </c>
+      <c r="K35" s="6">
+        <v>2742.64</v>
+      </c>
+      <c r="L35" s="7">
+        <v>2468.36</v>
+      </c>
+    </row>
+    <row r="36" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E36" s="9"/>
+      <c r="F36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E37" s="9"/>
+      <c r="F37" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G37" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H37" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I37" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="J29" s="4" t="s">
+      <c r="J37" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="K29" s="4" t="s">
+      <c r="K37" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="L29" s="5" t="s">
+      <c r="L37" s="7" t="s">
         <v>112</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="E4:L4"/>
     <mergeCell ref="E6:E13"/>
     <mergeCell ref="E14:E21"/>
     <mergeCell ref="E22:E29"/>
+    <mergeCell ref="E30:E37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2806,32 +3435,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B976A7CC-AF2D-466C-A6A2-E94CA26139E4}">
-  <dimension ref="E4:L29"/>
+  <dimension ref="E4:L37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="21.453125" customWidth="1"/>
-    <col min="6" max="6" width="29.54296875" customWidth="1"/>
-    <col min="7" max="12" width="21.81640625" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="29.5703125" customWidth="1"/>
+    <col min="7" max="12" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="5:12" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="E4" s="9" t="s">
+    <row r="4" spans="5:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-    </row>
-    <row r="5" spans="5:12" ht="84" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5" spans="5:12" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E5" s="1" t="s">
         <v>1</v>
       </c>
@@ -2857,8 +3486,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E6" s="10">
+    <row r="6" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E6" s="9">
         <v>100</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -2883,8 +3512,8 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E7" s="10"/>
+    <row r="7" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E7" s="9"/>
       <c r="F7" s="2" t="s">
         <v>16</v>
       </c>
@@ -2907,8 +3536,8 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E8" s="10"/>
+    <row r="8" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E8" s="9"/>
       <c r="F8" s="2" t="s">
         <v>23</v>
       </c>
@@ -2931,8 +3560,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E9" s="10"/>
+    <row r="9" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E9" s="9"/>
       <c r="F9" s="2" t="s">
         <v>30</v>
       </c>
@@ -2955,8 +3584,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E10" s="10"/>
+    <row r="10" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E10" s="9"/>
       <c r="F10" s="2" t="s">
         <v>37</v>
       </c>
@@ -2979,8 +3608,8 @@
         <v>83932</v>
       </c>
     </row>
-    <row r="11" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E11" s="10"/>
+    <row r="11" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E11" s="9"/>
       <c r="F11" s="2" t="s">
         <v>38</v>
       </c>
@@ -3003,8 +3632,8 @@
         <v>87.37</v>
       </c>
     </row>
-    <row r="12" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E12" s="10"/>
+    <row r="12" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E12" s="9"/>
       <c r="F12" s="2" t="s">
         <v>39</v>
       </c>
@@ -3027,8 +3656,8 @@
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E13" s="10"/>
+    <row r="13" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E13" s="9"/>
       <c r="F13" s="2" t="s">
         <v>44</v>
       </c>
@@ -3051,8 +3680,8 @@
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E14" s="10">
+    <row r="14" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E14" s="9">
         <v>1000</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -3077,8 +3706,8 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E15" s="10"/>
+    <row r="15" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E15" s="9"/>
       <c r="F15" s="2" t="s">
         <v>16</v>
       </c>
@@ -3101,8 +3730,8 @@
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E16" s="10"/>
+    <row r="16" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E16" s="9"/>
       <c r="F16" s="2" t="s">
         <v>23</v>
       </c>
@@ -3125,8 +3754,8 @@
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E17" s="10"/>
+    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E17" s="9"/>
       <c r="F17" s="2" t="s">
         <v>30</v>
       </c>
@@ -3149,8 +3778,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E18" s="10"/>
+    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E18" s="9"/>
       <c r="F18" s="2" t="s">
         <v>37</v>
       </c>
@@ -3173,8 +3802,8 @@
         <v>839034.4</v>
       </c>
     </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E19" s="10"/>
+    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E19" s="9"/>
       <c r="F19" s="2" t="s">
         <v>38</v>
       </c>
@@ -3197,8 +3826,8 @@
         <v>873.27</v>
       </c>
     </row>
-    <row r="20" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E20" s="10"/>
+    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E20" s="9"/>
       <c r="F20" s="2" t="s">
         <v>39</v>
       </c>
@@ -3221,8 +3850,8 @@
         <v>169</v>
       </c>
     </row>
-    <row r="21" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E21" s="10"/>
+    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E21" s="9"/>
       <c r="F21" s="2" t="s">
         <v>44</v>
       </c>
@@ -3245,206 +3874,337 @@
         <v>174</v>
       </c>
     </row>
-    <row r="22" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E22" s="10">
-        <v>4000</v>
+    <row r="22" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E22" s="9">
+        <v>2000</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>175</v>
-      </c>
+      <c r="G22" s="4"/>
       <c r="H22" s="4" t="s">
-        <v>176</v>
+        <v>728</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="23" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E23" s="10"/>
+        <v>722</v>
+      </c>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="5"/>
+    </row>
+    <row r="23" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E23" s="9"/>
       <c r="F23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="4" t="s">
-        <v>181</v>
-      </c>
+      <c r="G23" s="4"/>
       <c r="H23" s="4" t="s">
-        <v>182</v>
+        <v>729</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="24" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E24" s="10"/>
+        <v>718</v>
+      </c>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="5"/>
+    </row>
+    <row r="24" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E24" s="9"/>
       <c r="F24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>162</v>
-      </c>
+      <c r="G24" s="4"/>
       <c r="H24" s="4" t="s">
-        <v>187</v>
+        <v>730</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="25" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E25" s="10"/>
+        <v>723</v>
+      </c>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="5"/>
+    </row>
+    <row r="25" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E25" s="9"/>
       <c r="F25" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>186</v>
-      </c>
+      <c r="G25" s="4"/>
       <c r="H25" s="4" t="s">
-        <v>192</v>
+        <v>731</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="L25" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="26" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E26" s="10"/>
+        <v>724</v>
+      </c>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="5"/>
+    </row>
+    <row r="26" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E26" s="9"/>
       <c r="F26" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G26" s="4">
-        <v>1378872</v>
-      </c>
+      <c r="G26" s="4"/>
       <c r="H26" s="4">
-        <v>370004.2</v>
+        <v>369188.2</v>
       </c>
       <c r="I26" s="4">
-        <v>1641208</v>
-      </c>
-      <c r="J26" s="4">
-        <v>425443.3</v>
-      </c>
-      <c r="K26" s="4">
-        <v>1042170.33</v>
-      </c>
-      <c r="L26" s="5">
-        <v>1639046</v>
-      </c>
-    </row>
-    <row r="27" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E27" s="10"/>
+        <v>1493651</v>
+      </c>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="5"/>
+    </row>
+    <row r="27" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E27" s="9"/>
       <c r="F27" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G27" s="4">
-        <v>1435.49</v>
-      </c>
+      <c r="G27" s="4"/>
       <c r="H27" s="4">
-        <v>385.10199999999998</v>
+        <v>384.29</v>
       </c>
       <c r="I27" s="4">
-        <v>1708.26</v>
-      </c>
-      <c r="J27" s="4">
-        <v>442.91</v>
-      </c>
-      <c r="K27" s="4">
-        <v>1084.8399999999999</v>
-      </c>
-      <c r="L27" s="5">
-        <v>1706</v>
-      </c>
-    </row>
-    <row r="28" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E28" s="10"/>
+        <v>1554.87</v>
+      </c>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="5"/>
+    </row>
+    <row r="28" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E28" s="9"/>
       <c r="F28" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G28" s="4" t="s">
-        <v>196</v>
-      </c>
+      <c r="G28" s="4"/>
       <c r="H28" s="4" t="s">
         <v>168</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="L28" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="29" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E29" s="10"/>
+        <v>719</v>
+      </c>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="5"/>
+    </row>
+    <row r="29" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E29" s="9"/>
       <c r="F29" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G29" s="4"/>
+      <c r="H29" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="5"/>
+    </row>
+    <row r="30" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E30" s="9">
+        <v>4000</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E31" s="9"/>
+      <c r="F31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E32" s="9"/>
+      <c r="F32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="33" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E33" s="9"/>
+      <c r="F33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="34" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E34" s="9"/>
+      <c r="F34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G34" s="6">
+        <v>1378872</v>
+      </c>
+      <c r="H34" s="6">
+        <v>370004.2</v>
+      </c>
+      <c r="I34" s="6">
+        <v>1641208</v>
+      </c>
+      <c r="J34" s="6">
+        <v>425443.3</v>
+      </c>
+      <c r="K34" s="6">
+        <v>1042170.33</v>
+      </c>
+      <c r="L34" s="7">
+        <v>1639046</v>
+      </c>
+    </row>
+    <row r="35" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E35" s="9"/>
+      <c r="F35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35" s="6">
+        <v>1435.49</v>
+      </c>
+      <c r="H35" s="6">
+        <v>385.10199999999998</v>
+      </c>
+      <c r="I35" s="6">
+        <v>1708.26</v>
+      </c>
+      <c r="J35" s="6">
+        <v>442.91</v>
+      </c>
+      <c r="K35" s="6">
+        <v>1084.8399999999999</v>
+      </c>
+      <c r="L35" s="7">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="36" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E36" s="9"/>
+      <c r="F36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="37" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E37" s="9"/>
+      <c r="F37" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G37" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H37" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I37" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="J29" s="4" t="s">
+      <c r="J37" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="K29" s="4" t="s">
+      <c r="K37" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="L29" s="5" t="s">
+      <c r="L37" s="7" t="s">
         <v>204</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="E4:L4"/>
     <mergeCell ref="E6:E13"/>
     <mergeCell ref="E14:E21"/>
     <mergeCell ref="E22:E29"/>
+    <mergeCell ref="E30:E37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3452,32 +4212,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00ED35F5-8CA4-4A92-8FEE-EEEF74225688}">
-  <dimension ref="E4:L29"/>
+  <dimension ref="E4:L37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="21.453125" customWidth="1"/>
-    <col min="6" max="6" width="29.54296875" customWidth="1"/>
-    <col min="7" max="12" width="21.81640625" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="29.5703125" customWidth="1"/>
+    <col min="7" max="12" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="5:12" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="E4" s="9" t="s">
+    <row r="4" spans="5:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-    </row>
-    <row r="5" spans="5:12" ht="84" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5" spans="5:12" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E5" s="1" t="s">
         <v>1</v>
       </c>
@@ -3503,8 +4263,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E6" s="10">
+    <row r="6" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E6" s="9">
         <v>100</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -3529,8 +4289,8 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E7" s="10"/>
+    <row r="7" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E7" s="9"/>
       <c r="F7" s="2" t="s">
         <v>16</v>
       </c>
@@ -3553,8 +4313,8 @@
         <v>215</v>
       </c>
     </row>
-    <row r="8" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E8" s="10"/>
+    <row r="8" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E8" s="9"/>
       <c r="F8" s="2" t="s">
         <v>23</v>
       </c>
@@ -3577,8 +4337,8 @@
         <v>221</v>
       </c>
     </row>
-    <row r="9" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E9" s="10"/>
+    <row r="9" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E9" s="9"/>
       <c r="F9" s="2" t="s">
         <v>30</v>
       </c>
@@ -3601,8 +4361,8 @@
         <v>227</v>
       </c>
     </row>
-    <row r="10" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E10" s="10"/>
+    <row r="10" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E10" s="9"/>
       <c r="F10" s="2" t="s">
         <v>37</v>
       </c>
@@ -3625,8 +4385,8 @@
         <v>83915</v>
       </c>
     </row>
-    <row r="11" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E11" s="10"/>
+    <row r="11" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E11" s="9"/>
       <c r="F11" s="2" t="s">
         <v>38</v>
       </c>
@@ -3649,8 +4409,8 @@
         <v>87.39</v>
       </c>
     </row>
-    <row r="12" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E12" s="10"/>
+    <row r="12" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E12" s="9"/>
       <c r="F12" s="2" t="s">
         <v>39</v>
       </c>
@@ -3673,8 +4433,8 @@
         <v>231</v>
       </c>
     </row>
-    <row r="13" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E13" s="10"/>
+    <row r="13" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E13" s="9"/>
       <c r="F13" s="2" t="s">
         <v>44</v>
       </c>
@@ -3697,8 +4457,8 @@
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E14" s="10">
+    <row r="14" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E14" s="9">
         <v>1000</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -3723,8 +4483,8 @@
         <v>237</v>
       </c>
     </row>
-    <row r="15" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E15" s="10"/>
+    <row r="15" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E15" s="9"/>
       <c r="F15" s="2" t="s">
         <v>16</v>
       </c>
@@ -3747,8 +4507,8 @@
         <v>243</v>
       </c>
     </row>
-    <row r="16" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E16" s="10"/>
+    <row r="16" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E16" s="9"/>
       <c r="F16" s="2" t="s">
         <v>23</v>
       </c>
@@ -3771,8 +4531,8 @@
         <v>249</v>
       </c>
     </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E17" s="10"/>
+    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E17" s="9"/>
       <c r="F17" s="2" t="s">
         <v>30</v>
       </c>
@@ -3795,8 +4555,8 @@
         <v>254</v>
       </c>
     </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E18" s="10"/>
+    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E18" s="9"/>
       <c r="F18" s="2" t="s">
         <v>37</v>
       </c>
@@ -3819,8 +4579,8 @@
         <v>548493.6</v>
       </c>
     </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E19" s="10"/>
+    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E19" s="9"/>
       <c r="F19" s="2" t="s">
         <v>38</v>
       </c>
@@ -3843,8 +4603,8 @@
         <v>570.92999999999995</v>
       </c>
     </row>
-    <row r="20" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E20" s="10"/>
+    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E20" s="9"/>
       <c r="F20" s="2" t="s">
         <v>39</v>
       </c>
@@ -3867,8 +4627,8 @@
         <v>259</v>
       </c>
     </row>
-    <row r="21" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E21" s="10"/>
+    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E21" s="9"/>
       <c r="F21" s="2" t="s">
         <v>44</v>
       </c>
@@ -3891,206 +4651,337 @@
         <v>265</v>
       </c>
     </row>
-    <row r="22" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E22" s="10">
-        <v>4000</v>
+    <row r="22" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E22" s="9">
+        <v>2000</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>266</v>
-      </c>
+      <c r="G22" s="4"/>
       <c r="H22" s="4" t="s">
-        <v>267</v>
+        <v>733</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="23" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E23" s="10"/>
+        <v>725</v>
+      </c>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="5"/>
+    </row>
+    <row r="23" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E23" s="9"/>
       <c r="F23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="4" t="s">
-        <v>272</v>
-      </c>
+      <c r="G23" s="4"/>
       <c r="H23" s="4" t="s">
-        <v>273</v>
+        <v>734</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="J23" s="4">
-        <v>41120</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="24" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E24" s="10"/>
+        <v>720</v>
+      </c>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="5"/>
+    </row>
+    <row r="24" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E24" s="9"/>
       <c r="F24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>277</v>
-      </c>
+      <c r="G24" s="4"/>
       <c r="H24" s="4" t="s">
-        <v>278</v>
+        <v>735</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="25" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E25" s="10"/>
+        <v>726</v>
+      </c>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="5"/>
+    </row>
+    <row r="25" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E25" s="9"/>
       <c r="F25" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>283</v>
-      </c>
+      <c r="G25" s="4"/>
       <c r="H25" s="4" t="s">
-        <v>284</v>
+        <v>736</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="L25" s="5" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="26" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E26" s="10"/>
+        <v>727</v>
+      </c>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="5"/>
+    </row>
+    <row r="26" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E26" s="9"/>
       <c r="F26" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G26" s="4">
-        <v>350823</v>
-      </c>
+      <c r="G26" s="4"/>
       <c r="H26" s="4">
-        <v>89371</v>
+        <v>83580.800000000003</v>
       </c>
       <c r="I26" s="4">
-        <v>754229.2</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="K26" s="4">
-        <v>284216.7</v>
-      </c>
-      <c r="L26" s="5">
-        <v>580370</v>
-      </c>
-    </row>
-    <row r="27" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E27" s="10"/>
+        <v>695342.3</v>
+      </c>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="5"/>
+    </row>
+    <row r="27" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E27" s="9"/>
       <c r="F27" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G27" s="4">
-        <v>365.18</v>
-      </c>
+      <c r="G27" s="4"/>
       <c r="H27" s="4">
-        <v>93.02</v>
+        <v>86.99</v>
       </c>
       <c r="I27" s="4">
-        <v>785.1</v>
-      </c>
-      <c r="J27" s="4">
-        <v>96.31</v>
-      </c>
-      <c r="K27" s="4">
-        <v>292.82</v>
-      </c>
-      <c r="L27" s="5">
-        <v>604.09</v>
-      </c>
-    </row>
-    <row r="28" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E28" s="10"/>
+        <v>726.53</v>
+      </c>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="5"/>
+    </row>
+    <row r="28" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E28" s="9"/>
       <c r="F28" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G28" s="4" t="s">
-        <v>290</v>
-      </c>
+      <c r="G28" s="4"/>
       <c r="H28" s="4" t="s">
-        <v>256</v>
+        <v>170</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="L28" s="5" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="29" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E29" s="10"/>
+        <v>257</v>
+      </c>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="5"/>
+    </row>
+    <row r="29" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E29" s="9"/>
       <c r="F29" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G29" s="4"/>
+      <c r="H29" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="5"/>
+    </row>
+    <row r="30" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E30" s="9">
+        <v>4000</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="31" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E31" s="9"/>
+      <c r="F31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="J31" s="6">
+        <v>41120</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="32" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E32" s="9"/>
+      <c r="F32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="33" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E33" s="9"/>
+      <c r="F33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="34" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E34" s="9"/>
+      <c r="F34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G34" s="6">
+        <v>350823</v>
+      </c>
+      <c r="H34" s="6">
+        <v>89371</v>
+      </c>
+      <c r="I34" s="6">
+        <v>754229.2</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="K34" s="6">
+        <v>284216.7</v>
+      </c>
+      <c r="L34" s="7">
+        <v>580370</v>
+      </c>
+    </row>
+    <row r="35" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E35" s="9"/>
+      <c r="F35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35" s="6">
+        <v>365.18</v>
+      </c>
+      <c r="H35" s="6">
+        <v>93.02</v>
+      </c>
+      <c r="I35" s="6">
+        <v>785.1</v>
+      </c>
+      <c r="J35" s="6">
+        <v>96.31</v>
+      </c>
+      <c r="K35" s="6">
+        <v>292.82</v>
+      </c>
+      <c r="L35" s="7">
+        <v>604.09</v>
+      </c>
+    </row>
+    <row r="36" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E36" s="9"/>
+      <c r="F36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="37" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E37" s="9"/>
+      <c r="F37" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G37" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H37" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I37" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="J29" s="4" t="s">
+      <c r="J37" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="K29" s="4" t="s">
+      <c r="K37" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="L29" s="5" t="s">
+      <c r="L37" s="7" t="s">
         <v>297</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="E4:L4"/>
     <mergeCell ref="E6:E13"/>
     <mergeCell ref="E14:E21"/>
     <mergeCell ref="E22:E29"/>
+    <mergeCell ref="E30:E37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4098,33 +4989,33 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60D2CE12-D10E-4E1F-A815-629670A212BC}">
-  <dimension ref="E4:M29"/>
+  <dimension ref="E4:M37"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="30.1796875" customWidth="1"/>
-    <col min="7" max="13" width="26.453125" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" customWidth="1"/>
+    <col min="7" max="13" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="5:13" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="E4" s="9" t="s">
+    <row r="4" spans="5:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E4" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-    </row>
-    <row r="5" spans="5:13" ht="77.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+    </row>
+    <row r="5" spans="5:13" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E5" s="1" t="s">
         <v>1</v>
       </c>
@@ -4153,8 +5044,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E6" s="10">
+    <row r="6" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E6" s="9">
         <v>100</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -4182,8 +5073,8 @@
         <v>304</v>
       </c>
     </row>
-    <row r="7" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E7" s="10"/>
+    <row r="7" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E7" s="9"/>
       <c r="F7" s="2" t="s">
         <v>16</v>
       </c>
@@ -4209,8 +5100,8 @@
         <v>311</v>
       </c>
     </row>
-    <row r="8" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E8" s="10"/>
+    <row r="8" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E8" s="9"/>
       <c r="F8" s="2" t="s">
         <v>23</v>
       </c>
@@ -4236,8 +5127,8 @@
         <v>316</v>
       </c>
     </row>
-    <row r="9" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E9" s="10"/>
+    <row r="9" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E9" s="9"/>
       <c r="F9" s="2" t="s">
         <v>30</v>
       </c>
@@ -4263,8 +5154,8 @@
         <v>323</v>
       </c>
     </row>
-    <row r="10" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E10" s="10"/>
+    <row r="10" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E10" s="9"/>
       <c r="F10" s="2" t="s">
         <v>37</v>
       </c>
@@ -4290,8 +5181,8 @@
         <v>83902</v>
       </c>
     </row>
-    <row r="11" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E11" s="10"/>
+    <row r="11" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E11" s="9"/>
       <c r="F11" s="2" t="s">
         <v>38</v>
       </c>
@@ -4317,8 +5208,8 @@
         <v>87.36</v>
       </c>
     </row>
-    <row r="12" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E12" s="10"/>
+    <row r="12" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E12" s="9"/>
       <c r="F12" s="2" t="s">
         <v>39</v>
       </c>
@@ -4344,8 +5235,8 @@
         <v>232</v>
       </c>
     </row>
-    <row r="13" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E13" s="10"/>
+    <row r="13" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E13" s="9"/>
       <c r="F13" s="2" t="s">
         <v>44</v>
       </c>
@@ -4371,8 +5262,8 @@
         <v>334</v>
       </c>
     </row>
-    <row r="14" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E14" s="10">
+    <row r="14" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E14" s="9">
         <v>1000</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -4400,8 +5291,8 @@
         <v>340</v>
       </c>
     </row>
-    <row r="15" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E15" s="10"/>
+    <row r="15" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E15" s="9"/>
       <c r="F15" s="2" t="s">
         <v>16</v>
       </c>
@@ -4427,8 +5318,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="16" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E16" s="10"/>
+    <row r="16" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E16" s="9"/>
       <c r="F16" s="2" t="s">
         <v>23</v>
       </c>
@@ -4454,8 +5345,8 @@
         <v>354</v>
       </c>
     </row>
-    <row r="17" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E17" s="10"/>
+    <row r="17" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E17" s="9"/>
       <c r="F17" s="2" t="s">
         <v>30</v>
       </c>
@@ -4481,8 +5372,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="18" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E18" s="10"/>
+    <row r="18" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E18" s="9"/>
       <c r="F18" s="2" t="s">
         <v>37</v>
       </c>
@@ -4508,8 +5399,8 @@
         <v>838856</v>
       </c>
     </row>
-    <row r="19" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E19" s="10"/>
+    <row r="19" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E19" s="9"/>
       <c r="F19" s="2" t="s">
         <v>38</v>
       </c>
@@ -4535,8 +5426,8 @@
         <v>873.1</v>
       </c>
     </row>
-    <row r="20" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E20" s="10"/>
+    <row r="20" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E20" s="9"/>
       <c r="F20" s="2" t="s">
         <v>39</v>
       </c>
@@ -4562,8 +5453,8 @@
         <v>366</v>
       </c>
     </row>
-    <row r="21" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E21" s="10"/>
+    <row r="21" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E21" s="9"/>
       <c r="F21" s="2" t="s">
         <v>44</v>
       </c>
@@ -4589,230 +5480,449 @@
         <v>373</v>
       </c>
     </row>
-    <row r="22" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E22" s="10">
-        <v>4000</v>
+    <row r="22" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E22" s="9">
+        <v>2000</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>374</v>
+        <v>699</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>376</v>
+        <v>704</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>587</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>377</v>
+        <v>592</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>378</v>
+        <v>571</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>379</v>
+        <v>576</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="23" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E23" s="10"/>
+        <v>582</v>
+      </c>
+    </row>
+    <row r="23" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E23" s="9"/>
       <c r="F23" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>381</v>
+        <v>700</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>382</v>
+        <v>705</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>383</v>
+        <v>588</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>384</v>
+        <v>593</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>385</v>
+        <v>572</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>386</v>
+        <v>577</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="24" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E24" s="10"/>
+        <v>585</v>
+      </c>
+    </row>
+    <row r="24" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E24" s="9"/>
       <c r="F24" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>388</v>
+        <v>701</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>389</v>
+        <v>706</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>390</v>
+        <v>589</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>391</v>
+        <v>594</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>392</v>
+        <v>573</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>393</v>
+        <v>578</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="25" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E25" s="10"/>
+        <v>583</v>
+      </c>
+    </row>
+    <row r="25" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E25" s="9"/>
       <c r="F25" s="2" t="s">
         <v>30</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>395</v>
+        <v>702</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>396</v>
+        <v>707</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>397</v>
+        <v>590</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>398</v>
+        <v>595</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>191</v>
+        <v>574</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>399</v>
+        <v>579</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="26" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E26" s="10"/>
+        <v>584</v>
+      </c>
+    </row>
+    <row r="26" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E26" s="9"/>
       <c r="F26" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G26" s="4">
-        <v>3067160</v>
+        <v>2719804.8</v>
       </c>
       <c r="H26" s="4">
-        <v>2127163</v>
+        <v>1667377</v>
       </c>
       <c r="I26" s="4">
-        <v>1435061.67</v>
+        <v>1263554.6000000001</v>
       </c>
       <c r="J26" s="4">
-        <v>1551003</v>
+        <v>1354828</v>
       </c>
       <c r="K26" s="4">
-        <v>1641889.4</v>
+        <v>1236687.8</v>
       </c>
       <c r="L26" s="4">
-        <v>1693267</v>
+        <v>1260940</v>
       </c>
       <c r="M26" s="4">
-        <v>1860542</v>
-      </c>
-    </row>
-    <row r="27" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E27" s="10"/>
+        <v>1669970</v>
+      </c>
+    </row>
+    <row r="27" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E27" s="9"/>
       <c r="F27" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G27" s="4">
-        <v>3191.72</v>
+        <v>2830.84</v>
       </c>
       <c r="H27" s="4">
-        <v>2214.0700000000002</v>
+        <v>1735.55</v>
       </c>
       <c r="I27" s="4">
-        <v>1493.66</v>
+        <v>1317.3</v>
       </c>
       <c r="J27" s="4">
-        <v>1614.5</v>
+        <v>1410.04</v>
       </c>
       <c r="K27" s="4">
-        <v>1708.95</v>
+        <v>1287.3399999999999</v>
       </c>
       <c r="L27" s="4">
-        <v>1762.45</v>
+        <v>1312.53</v>
       </c>
       <c r="M27" s="4">
-        <v>1936.596</v>
-      </c>
-    </row>
-    <row r="28" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E28" s="10"/>
+        <v>1738.2</v>
+      </c>
+    </row>
+    <row r="28" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E28" s="9"/>
       <c r="F28" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>401</v>
+        <v>110</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>108</v>
+        <v>404</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>402</v>
+        <v>596</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>110</v>
+        <v>404</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>403</v>
+        <v>580</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="29" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E29" s="10"/>
+        <v>407</v>
+      </c>
+    </row>
+    <row r="29" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E29" s="9"/>
       <c r="F29" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G29" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="30" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E30" s="9">
+        <v>4000</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="31" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E31" s="9"/>
+      <c r="F31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="32" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E32" s="9"/>
+      <c r="F32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="33" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E33" s="9"/>
+      <c r="F33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="34" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E34" s="9"/>
+      <c r="F34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G34" s="6">
+        <v>3067160</v>
+      </c>
+      <c r="H34" s="6">
+        <v>2127163</v>
+      </c>
+      <c r="I34" s="6">
+        <v>1435061.67</v>
+      </c>
+      <c r="J34" s="6">
+        <v>1551003</v>
+      </c>
+      <c r="K34" s="6">
+        <v>1641889.4</v>
+      </c>
+      <c r="L34" s="6">
+        <v>1693267</v>
+      </c>
+      <c r="M34" s="6">
+        <v>1860542</v>
+      </c>
+    </row>
+    <row r="35" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E35" s="9"/>
+      <c r="F35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35" s="6">
+        <v>3191.72</v>
+      </c>
+      <c r="H35" s="6">
+        <v>2214.0700000000002</v>
+      </c>
+      <c r="I35" s="6">
+        <v>1493.66</v>
+      </c>
+      <c r="J35" s="6">
+        <v>1614.5</v>
+      </c>
+      <c r="K35" s="6">
+        <v>1708.95</v>
+      </c>
+      <c r="L35" s="6">
+        <v>1762.45</v>
+      </c>
+      <c r="M35" s="6">
+        <v>1936.596</v>
+      </c>
+    </row>
+    <row r="36" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E36" s="9"/>
+      <c r="F36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="M36" s="6" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="37" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E37" s="9"/>
+      <c r="F37" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G37" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H37" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I37" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="J29" s="4" t="s">
+      <c r="J37" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="K29" s="4" t="s">
+      <c r="K37" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="L29" s="4" t="s">
+      <c r="L37" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="M29" s="4" t="s">
+      <c r="M37" s="6" t="s">
         <v>410</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="E4:M4"/>
     <mergeCell ref="E6:E13"/>
     <mergeCell ref="E14:E21"/>
     <mergeCell ref="E22:E29"/>
+    <mergeCell ref="E30:E37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4820,33 +5930,33 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34269D7A-0CE3-4DFC-BFD9-8BBFFA4D0336}">
-  <dimension ref="E4:M29"/>
+  <dimension ref="E4:M37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView topLeftCell="E5" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="21.453125" customWidth="1"/>
-    <col min="6" max="6" width="30.453125" customWidth="1"/>
-    <col min="7" max="13" width="22.26953125" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="30.42578125" customWidth="1"/>
+    <col min="7" max="13" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="5:13" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="E4" s="9" t="s">
+    <row r="4" spans="5:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E4" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-    </row>
-    <row r="5" spans="5:13" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+    </row>
+    <row r="5" spans="5:13" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E5" s="1" t="s">
         <v>1</v>
       </c>
@@ -4875,8 +5985,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E6" s="10">
+    <row r="6" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E6" s="9">
         <v>100</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -4904,8 +6014,8 @@
         <v>417</v>
       </c>
     </row>
-    <row r="7" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E7" s="10"/>
+    <row r="7" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E7" s="9"/>
       <c r="F7" s="2" t="s">
         <v>16</v>
       </c>
@@ -4931,8 +6041,8 @@
         <v>424</v>
       </c>
     </row>
-    <row r="8" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E8" s="10"/>
+    <row r="8" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E8" s="9"/>
       <c r="F8" s="2" t="s">
         <v>23</v>
       </c>
@@ -4958,8 +6068,8 @@
         <v>431</v>
       </c>
     </row>
-    <row r="9" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E9" s="10"/>
+    <row r="9" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E9" s="9"/>
       <c r="F9" s="2" t="s">
         <v>30</v>
       </c>
@@ -4985,8 +6095,8 @@
         <v>338</v>
       </c>
     </row>
-    <row r="10" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E10" s="10"/>
+    <row r="10" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E10" s="9"/>
       <c r="F10" s="2" t="s">
         <v>37</v>
       </c>
@@ -5012,8 +6122,8 @@
         <v>83979</v>
       </c>
     </row>
-    <row r="11" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E11" s="10"/>
+    <row r="11" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E11" s="9"/>
       <c r="F11" s="2" t="s">
         <v>38</v>
       </c>
@@ -5039,8 +6149,8 @@
         <v>87.43</v>
       </c>
     </row>
-    <row r="12" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E12" s="10"/>
+    <row r="12" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E12" s="9"/>
       <c r="F12" s="2" t="s">
         <v>39</v>
       </c>
@@ -5066,8 +6176,8 @@
         <v>332</v>
       </c>
     </row>
-    <row r="13" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E13" s="10"/>
+    <row r="13" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E13" s="9"/>
       <c r="F13" s="2" t="s">
         <v>44</v>
       </c>
@@ -5093,8 +6203,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E14" s="10">
+    <row r="14" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E14" s="9">
         <v>1000</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -5122,8 +6232,8 @@
         <v>448</v>
       </c>
     </row>
-    <row r="15" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E15" s="10"/>
+    <row r="15" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E15" s="9"/>
       <c r="F15" s="2" t="s">
         <v>16</v>
       </c>
@@ -5149,8 +6259,8 @@
         <v>455</v>
       </c>
     </row>
-    <row r="16" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E16" s="10"/>
+    <row r="16" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E16" s="9"/>
       <c r="F16" s="2" t="s">
         <v>23</v>
       </c>
@@ -5176,8 +6286,8 @@
         <v>461</v>
       </c>
     </row>
-    <row r="17" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E17" s="10"/>
+    <row r="17" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E17" s="9"/>
       <c r="F17" s="2" t="s">
         <v>30</v>
       </c>
@@ -5203,8 +6313,8 @@
         <v>221</v>
       </c>
     </row>
-    <row r="18" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E18" s="10"/>
+    <row r="18" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E18" s="9"/>
       <c r="F18" s="2" t="s">
         <v>37</v>
       </c>
@@ -5230,8 +6340,8 @@
         <v>839285</v>
       </c>
     </row>
-    <row r="19" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E19" s="10"/>
+    <row r="19" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E19" s="9"/>
       <c r="F19" s="2" t="s">
         <v>38</v>
       </c>
@@ -5257,8 +6367,8 @@
         <v>873.59</v>
       </c>
     </row>
-    <row r="20" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E20" s="10"/>
+    <row r="20" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E20" s="9"/>
       <c r="F20" s="2" t="s">
         <v>39</v>
       </c>
@@ -5284,8 +6394,8 @@
         <v>470</v>
       </c>
     </row>
-    <row r="21" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E21" s="10"/>
+    <row r="21" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E21" s="9"/>
       <c r="F21" s="2" t="s">
         <v>44</v>
       </c>
@@ -5311,230 +6421,449 @@
         <v>476</v>
       </c>
     </row>
-    <row r="22" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E22" s="10">
-        <v>4000</v>
+    <row r="22" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E22" s="9">
+        <v>2000</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>477</v>
+        <v>690</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>478</v>
+        <v>695</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>479</v>
+        <v>613</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>84</v>
+        <v>618</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>480</v>
+        <v>598</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>481</v>
+        <v>602</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="23" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E23" s="10"/>
+        <v>608</v>
+      </c>
+    </row>
+    <row r="23" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E23" s="9"/>
       <c r="F23" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>483</v>
+        <v>691</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>484</v>
+        <v>696</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>485</v>
+        <v>614</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>486</v>
+        <v>619</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>487</v>
+        <v>599</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>488</v>
+        <v>603</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="24" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E24" s="10"/>
+        <v>609</v>
+      </c>
+    </row>
+    <row r="24" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E24" s="9"/>
       <c r="F24" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>490</v>
+        <v>692</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>491</v>
+        <v>697</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>492</v>
+        <v>615</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>493</v>
+        <v>620</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>494</v>
+        <v>600</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>495</v>
+        <v>604</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="25" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E25" s="10"/>
+        <v>610</v>
+      </c>
+    </row>
+    <row r="25" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E25" s="9"/>
       <c r="F25" s="2" t="s">
         <v>30</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>497</v>
+        <v>693</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>498</v>
+        <v>698</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>499</v>
+        <v>616</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>500</v>
+        <v>621</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>501</v>
+        <v>601</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>502</v>
+        <v>605</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="26" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E26" s="10"/>
+        <v>611</v>
+      </c>
+    </row>
+    <row r="26" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E26" s="9"/>
       <c r="F26" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G26" s="4">
-        <v>3219096</v>
+        <v>2935647</v>
       </c>
       <c r="H26" s="4">
-        <v>1518941</v>
+        <v>1336582</v>
       </c>
       <c r="I26" s="4">
-        <v>1286759</v>
+        <v>1164474</v>
       </c>
       <c r="J26" s="4">
-        <v>1493285.33</v>
+        <v>1327463.8</v>
       </c>
       <c r="K26" s="4">
-        <v>1101629</v>
+        <v>1059835</v>
       </c>
       <c r="L26" s="4">
-        <v>1170975</v>
+        <v>1127230</v>
       </c>
       <c r="M26" s="4">
-        <v>1550665</v>
-      </c>
-    </row>
-    <row r="27" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E27" s="10"/>
+        <v>1539978</v>
+      </c>
+    </row>
+    <row r="27" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E27" s="9"/>
       <c r="F27" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G27" s="4">
-        <v>3350.83</v>
+        <v>3055.31</v>
       </c>
       <c r="H27" s="4">
-        <v>1581.02</v>
+        <v>1391.29</v>
       </c>
       <c r="I27" s="4">
-        <v>1339.19</v>
+        <v>1212.19</v>
       </c>
       <c r="J27" s="4">
-        <v>1554.51</v>
+        <v>1381.59</v>
       </c>
       <c r="K27" s="4">
-        <v>1146.7280000000001</v>
+        <v>1103.05</v>
       </c>
       <c r="L27" s="4">
-        <v>1218.95</v>
+        <v>1173.3699999999999</v>
       </c>
       <c r="M27" s="4">
-        <v>1614.05</v>
-      </c>
-    </row>
-    <row r="28" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E28" s="10"/>
+        <v>1602.9</v>
+      </c>
+    </row>
+    <row r="28" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E28" s="9"/>
       <c r="F28" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>504</v>
+        <v>110</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>198</v>
+        <v>547</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>505</v>
+        <v>617</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>404</v>
+        <v>622</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>169</v>
+        <v>568</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>506</v>
+        <v>606</v>
       </c>
       <c r="M28" s="4" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="29" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E29" s="10"/>
+    <row r="29" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E29" s="9"/>
       <c r="F29" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>507</v>
+        <v>694</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>367</v>
+        <v>569</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>508</v>
+        <v>623</v>
       </c>
       <c r="K29" s="4" t="s">
         <v>404</v>
       </c>
       <c r="L29" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="30" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E30" s="9">
+        <v>4000</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="31" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E31" s="9"/>
+      <c r="F31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="32" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E32" s="9"/>
+      <c r="F32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="33" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E33" s="9"/>
+      <c r="F33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="34" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E34" s="9"/>
+      <c r="F34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G34" s="6">
+        <v>3219096</v>
+      </c>
+      <c r="H34" s="6">
+        <v>1518941</v>
+      </c>
+      <c r="I34" s="6">
+        <v>1286759</v>
+      </c>
+      <c r="J34" s="6">
+        <v>1493285.33</v>
+      </c>
+      <c r="K34" s="6">
+        <v>1101629</v>
+      </c>
+      <c r="L34" s="6">
+        <v>1170975</v>
+      </c>
+      <c r="M34" s="6">
+        <v>1550665</v>
+      </c>
+    </row>
+    <row r="35" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E35" s="9"/>
+      <c r="F35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35" s="6">
+        <v>3350.83</v>
+      </c>
+      <c r="H35" s="6">
+        <v>1581.02</v>
+      </c>
+      <c r="I35" s="6">
+        <v>1339.19</v>
+      </c>
+      <c r="J35" s="6">
+        <v>1554.51</v>
+      </c>
+      <c r="K35" s="6">
+        <v>1146.7280000000001</v>
+      </c>
+      <c r="L35" s="6">
+        <v>1218.95</v>
+      </c>
+      <c r="M35" s="6">
+        <v>1614.05</v>
+      </c>
+    </row>
+    <row r="36" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E36" s="9"/>
+      <c r="F36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="M36" s="6" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="37" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E37" s="9"/>
+      <c r="F37" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="L37" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="M29" s="4" t="s">
+      <c r="M37" s="6" t="s">
         <v>510</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="E4:M4"/>
     <mergeCell ref="E6:E13"/>
     <mergeCell ref="E14:E21"/>
     <mergeCell ref="E22:E29"/>
+    <mergeCell ref="E30:E37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5542,30 +6871,33 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEA4A1E2-875B-4DA4-AFD6-20C97425A702}">
-  <dimension ref="E4:J29"/>
+  <dimension ref="E4:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="F4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="22.81640625" customWidth="1"/>
-    <col min="6" max="6" width="32.26953125" customWidth="1"/>
-    <col min="7" max="10" width="31.453125" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" customWidth="1"/>
+    <col min="6" max="6" width="32.28515625" customWidth="1"/>
+    <col min="7" max="13" width="31.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="5:10" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="E4" s="9" t="s">
+    <row r="4" spans="5:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E4" s="8" t="s">
         <v>511</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-    </row>
-    <row r="5" spans="5:10" ht="84" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+    </row>
+    <row r="5" spans="5:13" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E5" s="1" t="s">
         <v>1</v>
       </c>
@@ -5584,9 +6916,18 @@
       <c r="J5" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="E6" s="10">
+      <c r="K5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E6" s="9">
         <v>100</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -5604,9 +6945,18 @@
       <c r="J6" s="4" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="7" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="E7" s="10"/>
+      <c r="K6" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="7" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E7" s="9"/>
       <c r="F7" s="2" t="s">
         <v>16</v>
       </c>
@@ -5622,9 +6972,18 @@
       <c r="J7" s="4" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="8" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="E8" s="10"/>
+      <c r="K7" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="8" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E8" s="9"/>
       <c r="F8" s="2" t="s">
         <v>23</v>
       </c>
@@ -5640,9 +6999,18 @@
       <c r="J8" s="4" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="9" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="E9" s="10"/>
+      <c r="K8" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E9" s="9"/>
       <c r="F9" s="2" t="s">
         <v>30</v>
       </c>
@@ -5658,9 +7026,18 @@
       <c r="J9" s="4" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="10" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="E10" s="10"/>
+      <c r="K9" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="10" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E10" s="9"/>
       <c r="F10" s="2" t="s">
         <v>37</v>
       </c>
@@ -5676,9 +7053,18 @@
       <c r="J10" s="4">
         <v>83810.5</v>
       </c>
-    </row>
-    <row r="11" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="E11" s="10"/>
+      <c r="K10" s="5">
+        <v>83796.600000000006</v>
+      </c>
+      <c r="L10" s="5">
+        <v>83791.399999999994</v>
+      </c>
+      <c r="M10" s="5">
+        <v>83852.399999999994</v>
+      </c>
+    </row>
+    <row r="11" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E11" s="9"/>
       <c r="F11" s="2" t="s">
         <v>38</v>
       </c>
@@ -5694,9 +7080,18 @@
       <c r="J11" s="4">
         <v>87.25</v>
       </c>
-    </row>
-    <row r="12" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="E12" s="10"/>
+      <c r="K11" s="5">
+        <v>87.23</v>
+      </c>
+      <c r="L11" s="5">
+        <v>87.22</v>
+      </c>
+      <c r="M11" s="5">
+        <v>87.28</v>
+      </c>
+    </row>
+    <row r="12" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E12" s="9"/>
       <c r="F12" s="2" t="s">
         <v>39</v>
       </c>
@@ -5712,9 +7107,18 @@
       <c r="J12" s="4" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="13" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="E13" s="10"/>
+      <c r="K12" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="13" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E13" s="9"/>
       <c r="F13" s="2" t="s">
         <v>44</v>
       </c>
@@ -5730,9 +7134,18 @@
       <c r="J13" s="4" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="14" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="E14" s="10">
+      <c r="K13" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="14" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E14" s="9">
         <v>1000</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -5750,9 +7163,18 @@
       <c r="J14" s="6" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="15" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="E15" s="10"/>
+      <c r="K14" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="15" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E15" s="9"/>
       <c r="F15" s="2" t="s">
         <v>16</v>
       </c>
@@ -5768,9 +7190,18 @@
       <c r="J15" s="6" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="16" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="E16" s="10"/>
+      <c r="K15" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="16" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E16" s="9"/>
       <c r="F16" s="2" t="s">
         <v>23</v>
       </c>
@@ -5786,9 +7217,18 @@
       <c r="J16" s="6" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="17" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="E17" s="10"/>
+      <c r="K16" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="17" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E17" s="9"/>
       <c r="F17" s="2" t="s">
         <v>30</v>
       </c>
@@ -5804,9 +7244,18 @@
       <c r="J17" s="6" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="18" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="E18" s="10"/>
+      <c r="K17" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="18" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E18" s="9"/>
       <c r="F18" s="2" t="s">
         <v>37</v>
       </c>
@@ -5822,9 +7271,18 @@
       <c r="J18" s="6">
         <v>837182</v>
       </c>
-    </row>
-    <row r="19" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="E19" s="10"/>
+      <c r="K18" s="7">
+        <v>837949</v>
+      </c>
+      <c r="L18" s="7">
+        <v>838073</v>
+      </c>
+      <c r="M18" s="7">
+        <v>839066</v>
+      </c>
+    </row>
+    <row r="19" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E19" s="9"/>
       <c r="F19" s="2" t="s">
         <v>38</v>
       </c>
@@ -5840,9 +7298,18 @@
       <c r="J19" s="6">
         <v>874.68</v>
       </c>
-    </row>
-    <row r="20" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="E20" s="10"/>
+      <c r="K19" s="7">
+        <v>872.12</v>
+      </c>
+      <c r="L19" s="7">
+        <v>872.3</v>
+      </c>
+      <c r="M19" s="7">
+        <v>873.3</v>
+      </c>
+    </row>
+    <row r="20" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E20" s="9"/>
       <c r="F20" s="2" t="s">
         <v>39</v>
       </c>
@@ -5858,9 +7325,18 @@
       <c r="J20" s="6" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="21" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="E21" s="10"/>
+      <c r="K20" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="21" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E21" s="9"/>
       <c r="F21" s="2" t="s">
         <v>44</v>
       </c>
@@ -5876,159 +7352,459 @@
       <c r="J21" s="6" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="22" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="E22" s="10">
-        <v>4000</v>
+      <c r="K21" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="22" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E22" s="9">
+        <v>2000</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>552</v>
+        <v>680</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>553</v>
+        <v>683</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>554</v>
+        <v>671</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="23" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="E23" s="10"/>
+        <v>676</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="23" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E23" s="9"/>
       <c r="F23" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>556</v>
+        <v>684</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>557</v>
+        <v>685</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>558</v>
+        <v>672</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="24" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="E24" s="10"/>
+        <v>164</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="24" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E24" s="9"/>
       <c r="F24" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>560</v>
+        <v>279</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>561</v>
+        <v>686</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>562</v>
+        <v>673</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="25" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="E25" s="10"/>
+        <v>677</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="25" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E25" s="9"/>
       <c r="F25" s="2" t="s">
         <v>30</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>564</v>
+        <v>681</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>565</v>
+        <v>687</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>566</v>
+        <v>674</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="26" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="E26" s="10"/>
+        <v>678</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="26" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E26" s="9"/>
       <c r="F26" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G26" s="4">
-        <v>3331397</v>
+        <v>3001125</v>
       </c>
       <c r="H26" s="4">
-        <v>1319012</v>
+        <v>1183314</v>
       </c>
       <c r="I26" s="4">
-        <v>911775</v>
+        <v>878926</v>
       </c>
       <c r="J26" s="4">
-        <v>1046129.33</v>
-      </c>
-    </row>
-    <row r="27" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="E27" s="10"/>
+        <v>975328</v>
+      </c>
+      <c r="K26" s="5">
+        <v>917328</v>
+      </c>
+      <c r="L26" s="5">
+        <v>990966</v>
+      </c>
+      <c r="M26" s="5">
+        <v>1271835</v>
+      </c>
+    </row>
+    <row r="27" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E27" s="9"/>
       <c r="F27" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G27" s="4">
-        <v>3467.64</v>
+        <v>3124.1</v>
       </c>
       <c r="H27" s="4">
-        <v>1372.8</v>
+        <v>1231.78</v>
       </c>
       <c r="I27" s="4">
-        <v>949.18</v>
+        <v>914.97</v>
       </c>
       <c r="J27" s="4">
-        <v>1088.75</v>
-      </c>
-    </row>
-    <row r="28" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="E28" s="10"/>
+        <v>1015.14</v>
+      </c>
+      <c r="K27" s="5">
+        <v>954.89</v>
+      </c>
+      <c r="L27" s="5">
+        <v>1031.51</v>
+      </c>
+      <c r="M27" s="5">
+        <v>1323.52</v>
+      </c>
+    </row>
+    <row r="28" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E28" s="9"/>
       <c r="F28" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>568</v>
+        <v>468</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>137</v>
+        <v>688</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>198</v>
+        <v>675</v>
       </c>
       <c r="J28" s="4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="29" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="E29" s="10"/>
+      <c r="K28" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="29" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E29" s="9"/>
       <c r="F29" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G29" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="M29" s="5" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="30" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E30" s="9">
+        <v>4000</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="31" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E31" s="9"/>
+      <c r="F31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="M31" s="7" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="32" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E32" s="9"/>
+      <c r="F32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="M32" s="7" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="33" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E33" s="9"/>
+      <c r="F33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="M33" s="7" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="34" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E34" s="9"/>
+      <c r="F34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G34" s="6">
+        <v>3331397</v>
+      </c>
+      <c r="H34" s="6">
+        <v>1319012</v>
+      </c>
+      <c r="I34" s="6">
+        <v>911775</v>
+      </c>
+      <c r="J34" s="6">
+        <v>1046129.33</v>
+      </c>
+      <c r="K34" s="7">
+        <v>1018262</v>
+      </c>
+      <c r="L34" s="7">
+        <v>1101998</v>
+      </c>
+      <c r="M34" s="7">
+        <v>1410614</v>
+      </c>
+    </row>
+    <row r="35" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E35" s="9"/>
+      <c r="F35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35" s="6">
+        <v>3467.64</v>
+      </c>
+      <c r="H35" s="6">
+        <v>1372.8</v>
+      </c>
+      <c r="I35" s="6">
+        <v>949.18</v>
+      </c>
+      <c r="J35" s="6">
+        <v>1088.75</v>
+      </c>
+      <c r="K35" s="7">
+        <v>1059.44</v>
+      </c>
+      <c r="L35" s="7">
+        <v>1147.2</v>
+      </c>
+      <c r="M35" s="7">
+        <v>1468.23</v>
+      </c>
+    </row>
+    <row r="36" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E36" s="9"/>
+      <c r="F36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M36" s="7" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="37" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E37" s="9"/>
+      <c r="F37" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G37" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H37" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I37" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="J29" s="4" t="s">
+      <c r="J37" s="6" t="s">
         <v>570</v>
       </c>
+      <c r="K37" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="M37" s="7" t="s">
+        <v>108</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="E4:J4"/>
+  <mergeCells count="5">
     <mergeCell ref="E6:E13"/>
     <mergeCell ref="E14:E21"/>
     <mergeCell ref="E22:E29"/>
+    <mergeCell ref="E30:E37"/>
+    <mergeCell ref="E4:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Wyniki 3/Gotowe!/Wyniki.xlsx
+++ b/Wyniki 3/Gotowe!/Wyniki.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kacpe\OneDrive\Pulpit\Projekty\Praca magisterska\Wyniki 3\Gotowe!\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0239B95-3544-48DE-B89B-3D29A9EDA83C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5635EF16-953E-4818-A97F-69878DEF09DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25710" yWindow="-2340" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25710" yWindow="-2340" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S1 1 rekord" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="753">
   <si>
     <t>S1 - pobieranie 1 rekordu</t>
   </si>
@@ -2255,6 +2255,51 @@
   </si>
   <si>
     <t>53MB</t>
+  </si>
+  <si>
+    <t>1ms</t>
+  </si>
+  <si>
+    <t>171,6ms</t>
+  </si>
+  <si>
+    <t>2,58ms</t>
+  </si>
+  <si>
+    <t>954MB</t>
+  </si>
+  <si>
+    <t>155MB</t>
+  </si>
+  <si>
+    <t>1070ms</t>
+  </si>
+  <si>
+    <t>534,27ms</t>
+  </si>
+  <si>
+    <t>638,43ms</t>
+  </si>
+  <si>
+    <t>648,03ms</t>
+  </si>
+  <si>
+    <t>37GB</t>
+  </si>
+  <si>
+    <t>113MB</t>
+  </si>
+  <si>
+    <t>4352ms</t>
+  </si>
+  <si>
+    <t>6870ms</t>
+  </si>
+  <si>
+    <t>5016ms</t>
+  </si>
+  <si>
+    <t>5040ms</t>
   </si>
 </sst>
 </file>
@@ -2661,7 +2706,7 @@
   <dimension ref="E4:L37"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3104,7 +3149,9 @@
       <c r="F22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="4"/>
+      <c r="G22" s="4" t="s">
+        <v>738</v>
+      </c>
       <c r="H22" s="4" t="s">
         <v>709</v>
       </c>
@@ -3120,7 +3167,9 @@
       <c r="F23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="4"/>
+      <c r="G23" s="4" t="s">
+        <v>739</v>
+      </c>
       <c r="H23" s="4" t="s">
         <v>710</v>
       </c>
@@ -3136,7 +3185,9 @@
       <c r="F24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G24" s="4"/>
+      <c r="G24" s="4" t="s">
+        <v>534</v>
+      </c>
       <c r="H24" s="4" t="s">
         <v>711</v>
       </c>
@@ -3152,7 +3203,9 @@
       <c r="F25" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="4"/>
+      <c r="G25" s="4" t="s">
+        <v>740</v>
+      </c>
       <c r="H25" s="4" t="s">
         <v>712</v>
       </c>
@@ -3168,7 +3221,9 @@
       <c r="F26" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G26" s="4"/>
+      <c r="G26" s="4">
+        <v>1678827</v>
+      </c>
       <c r="H26" s="4">
         <v>1675111</v>
       </c>
@@ -3184,7 +3239,9 @@
       <c r="F27" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G27" s="4"/>
+      <c r="G27" s="4">
+        <v>1747.75</v>
+      </c>
       <c r="H27" s="4">
         <v>1743.54</v>
       </c>
@@ -3200,7 +3257,9 @@
       <c r="F28" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G28" s="4"/>
+      <c r="G28" s="4" t="s">
+        <v>741</v>
+      </c>
       <c r="H28" s="4" t="s">
         <v>404</v>
       </c>
@@ -3216,7 +3275,9 @@
       <c r="F29" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G29" s="4"/>
+      <c r="G29" s="4" t="s">
+        <v>742</v>
+      </c>
       <c r="H29" s="4" t="s">
         <v>713</v>
       </c>
@@ -3437,8 +3498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B976A7CC-AF2D-466C-A6A2-E94CA26139E4}">
   <dimension ref="E4:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3881,7 +3942,9 @@
       <c r="F22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="4"/>
+      <c r="G22" s="4" t="s">
+        <v>744</v>
+      </c>
       <c r="H22" s="4" t="s">
         <v>728</v>
       </c>
@@ -3897,7 +3960,9 @@
       <c r="F23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="4"/>
+      <c r="G23" s="4" t="s">
+        <v>743</v>
+      </c>
       <c r="H23" s="4" t="s">
         <v>729</v>
       </c>
@@ -3913,7 +3978,9 @@
       <c r="F24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G24" s="4"/>
+      <c r="G24" s="4" t="s">
+        <v>745</v>
+      </c>
       <c r="H24" s="4" t="s">
         <v>730</v>
       </c>
@@ -3929,7 +3996,9 @@
       <c r="F25" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="4"/>
+      <c r="G25" s="4" t="s">
+        <v>746</v>
+      </c>
       <c r="H25" s="4" t="s">
         <v>731</v>
       </c>
@@ -3945,7 +4014,9 @@
       <c r="F26" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G26" s="4"/>
+      <c r="G26" s="4">
+        <v>1095542</v>
+      </c>
       <c r="H26" s="4">
         <v>369188.2</v>
       </c>
@@ -3961,7 +4032,9 @@
       <c r="F27" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G27" s="4"/>
+      <c r="G27" s="4">
+        <v>1140.48</v>
+      </c>
       <c r="H27" s="4">
         <v>384.29</v>
       </c>
@@ -3977,7 +4050,9 @@
       <c r="F28" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G28" s="4"/>
+      <c r="G28" s="4" t="s">
+        <v>747</v>
+      </c>
       <c r="H28" s="4" t="s">
         <v>168</v>
       </c>
@@ -3993,7 +4068,9 @@
       <c r="F29" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G29" s="4"/>
+      <c r="G29" s="4" t="s">
+        <v>748</v>
+      </c>
       <c r="H29" s="4" t="s">
         <v>732</v>
       </c>
@@ -4214,8 +4291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00ED35F5-8CA4-4A92-8FEE-EEEF74225688}">
   <dimension ref="E4:L37"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4658,7 +4735,9 @@
       <c r="F22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="4"/>
+      <c r="G22" s="4" t="s">
+        <v>749</v>
+      </c>
       <c r="H22" s="4" t="s">
         <v>733</v>
       </c>
@@ -4674,7 +4753,9 @@
       <c r="F23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="4"/>
+      <c r="G23" s="4" t="s">
+        <v>750</v>
+      </c>
       <c r="H23" s="4" t="s">
         <v>734</v>
       </c>
@@ -4690,7 +4771,9 @@
       <c r="F24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G24" s="4"/>
+      <c r="G24" s="4" t="s">
+        <v>751</v>
+      </c>
       <c r="H24" s="4" t="s">
         <v>735</v>
       </c>
@@ -4706,7 +4789,9 @@
       <c r="F25" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="4"/>
+      <c r="G25" s="4" t="s">
+        <v>752</v>
+      </c>
       <c r="H25" s="4" t="s">
         <v>736</v>
       </c>
@@ -4722,7 +4807,9 @@
       <c r="F26" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G26" s="4"/>
+      <c r="G26" s="4">
+        <v>314187</v>
+      </c>
       <c r="H26" s="4">
         <v>83580.800000000003</v>
       </c>
@@ -4738,7 +4825,9 @@
       <c r="F27" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G27" s="4"/>
+      <c r="G27" s="4">
+        <v>327.02</v>
+      </c>
       <c r="H27" s="4">
         <v>86.99</v>
       </c>
@@ -4754,7 +4843,9 @@
       <c r="F28" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G28" s="4"/>
+      <c r="G28" s="4" t="s">
+        <v>255</v>
+      </c>
       <c r="H28" s="4" t="s">
         <v>170</v>
       </c>
@@ -4770,7 +4861,9 @@
       <c r="F29" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G29" s="4"/>
+      <c r="G29" s="4" t="s">
+        <v>260</v>
+      </c>
       <c r="H29" s="4" t="s">
         <v>737</v>
       </c>
